--- a/Sundial.xlsx
+++ b/Sundial.xlsx
@@ -296,6 +296,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Skyplot!$E$2:$E$13</c:f>
@@ -430,40 +500,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-279.33000856566701</c:v>
+                  <c:v>-270.08950861327202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-111.287873234369</c:v>
+                  <c:v>-109.24694139707201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-57.889105476168197</c:v>
+                  <c:v>-56.934077681082698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28.742825965779399</c:v>
+                  <c:v>-28.129439310993501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.1342724079001698</c:v>
+                  <c:v>-7.6542676733694099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2389123160110191</c:v>
+                  <c:v>9.6765944976546301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.1887313651205</c:v>
+                  <c:v>26.647307088603899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.253986065546201</c:v>
+                  <c:v>45.809877651451004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.458583609406205</c:v>
+                  <c:v>71.263869996461594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.96505471437</c:v>
+                  <c:v>113.48344745126001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.192090196968</c:v>
+                  <c:v>218.05658003363101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1400.3405292100499</c:v>
+                  <c:v>1642.9817384145299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,40 +545,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-127.70227392261801</c:v>
+                  <c:v>-124.951142615056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-77.671866273539706</c:v>
+                  <c:v>-77.064229078245702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-61.773698152584601</c:v>
+                  <c:v>-61.4893621447724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-53.096111174271797</c:v>
+                  <c:v>-52.913490402850798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-46.960421851318202</c:v>
+                  <c:v>-46.817512262037397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-41.787983925637199</c:v>
+                  <c:v>-41.657674834258401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36.741592703976004</c:v>
+                  <c:v>-36.605063075031403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-31.065382611100802</c:v>
+                  <c:v>-30.899879580585999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.561334371864799</c:v>
+                  <c:v>-23.321580180815001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.203804723946201</c:v>
+                  <c:v>-10.751740677936199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.934052310050099</c:v>
+                  <c:v>20.3823343677211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>372.37826573126603</c:v>
+                  <c:v>444.61871057584199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,8 +699,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286514528"/>
-        <c:axId val="289886152"/>
+        <c:axId val="174449776"/>
+        <c:axId val="174450168"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -672,49 +742,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-1214.79346256797</c:v>
+                  <c:v>-1093.51359914403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-224.28572892203999</c:v>
+                  <c:v>-219.330323641934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-114.94606253413301</c:v>
+                  <c:v>-113.32561204749599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-70.024372263943405</c:v>
+                  <c:v>-69.177536938400806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-43.803235031401499</c:v>
+                  <c:v>-43.248149806996999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-25.377881563146701</c:v>
+                  <c:v>-24.9583318468082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.7190325177401</c:v>
+                  <c:v>-10.3667647536146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.12641800479869</c:v>
+                  <c:v>2.4493802367558102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.381532264202599</c:v>
+                  <c:v>14.703005696166001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.094753372566199</c:v>
+                  <c:v>27.4433791882376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.558362998941703</c:v>
+                  <c:v>41.976073425667799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.007768121187397</c:v>
+                  <c:v>60.5780284437906</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.688932357338501</c:v>
+                  <c:v>88.636712126421401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142.53258165012701</c:v>
+                  <c:v>144.802168647363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>363.23060079457798</c:v>
+                  <c:v>379.22223943582401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,49 +796,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>266.283267304589</c:v>
+                  <c:v>234.81297663777701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.189376124105101</c:v>
+                  <c:v>12.025227518755401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.5324212697031</c:v>
+                  <c:v>-10.8320743421269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-17.5619387278856</c:v>
+                  <c:v>-17.660291563501399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-19.6508512552121</c:v>
+                  <c:v>-19.669203423190201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19.468589681833301</c:v>
+                  <c:v>-19.4427977909404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.856751836525302</c:v>
+                  <c:v>-17.798371176500801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.0412187023566</c:v>
+                  <c:v>-14.9512390324742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.915075096353499</c:v>
+                  <c:v>-10.786727793768801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.0469220934574697</c:v>
+                  <c:v>-4.8633668524454201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5215175414411299</c:v>
+                  <c:v>3.7965037756158302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.922534723030498</c:v>
+                  <c:v>17.3734077835066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.673143094869801</c:v>
+                  <c:v>41.541389245934802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.289297415220204</c:v>
+                  <c:v>96.608980340364496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>330.30310760572701</c:v>
+                  <c:v>347.72689951908302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,31 +887,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-455.92547842622201</c:v>
+                  <c:v>-426.801771879471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-104.55109524320299</c:v>
+                  <c:v>-101.76922457328899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-37.166006588085402</c:v>
+                  <c:v>-36.031317603120698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3922581249978601</c:v>
+                  <c:v>-1.63992214037802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.413258223991502</c:v>
+                  <c:v>25.0919551776954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.860480108004097</c:v>
+                  <c:v>52.651113359019703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.327424850289304</c:v>
+                  <c:v>89.527183563645906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>154.68240699901901</c:v>
+                  <c:v>157.31244153512901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>374.93734941782702</c:v>
+                  <c:v>388.455050964919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,31 +923,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-579.71703913557405</c:v>
+                  <c:v>-547.84755022638797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-201.31323591780901</c:v>
+                  <c:v>-198.49234627476201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-137.27304057306799</c:v>
+                  <c:v>-136.31695192523199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-111.613883607258</c:v>
+                  <c:v>-111.160859515803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-98.851603193182697</c:v>
+                  <c:v>-98.621440609158896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-92.894780708995697</c:v>
+                  <c:v>-92.813874860679306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-92.7807967658634</c:v>
+                  <c:v>-92.873924012773301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-102.488805797719</c:v>
+                  <c:v>-102.995460108112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-153.560122979993</c:v>
+                  <c:v>-156.929907614119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,46 +1597,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-268.45690795156099</c:v>
+                  <c:v>-261.338540892867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-125.346400808124</c:v>
+                  <c:v>-123.423343156554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-73.831025213997194</c:v>
+                  <c:v>-72.893352939740495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-45.291727332381498</c:v>
+                  <c:v>-44.697735833084998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.757121552430601</c:v>
+                  <c:v>-25.316139128950901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.4184026723517</c:v>
+                  <c:v>-10.051113470955899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9630094660608699</c:v>
+                  <c:v>3.2995234196323899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.7629899351946</c:v>
+                  <c:v>16.0999967434065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.169984464746399</c:v>
+                  <c:v>29.540376458208101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.698611736855902</c:v>
+                  <c:v>45.152579164073899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.101513776451696</c:v>
+                  <c:v>65.744506749614004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.284254105749</c:v>
+                  <c:v>98.423311939621001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167.79068437619901</c:v>
+                  <c:v>170.92558961416401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>593.73142004133899</c:v>
+                  <c:v>638.25247681357598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,46 +1648,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.42356280621985</c:v>
+                  <c:v>2.26720608515472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17.945591062270601</c:v>
+                  <c:v>-18.182897402031799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23.107217912586499</c:v>
+                  <c:v>-23.1690857305706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.1020872329924</c:v>
+                  <c:v>-24.0987107426301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-23.2585188350333</c:v>
+                  <c:v>-23.219414537663699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21.241759127327501</c:v>
+                  <c:v>-21.175307200510701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.1872479887219</c:v>
+                  <c:v>-18.092739134201398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.9368112895958</c:v>
+                  <c:v>-13.8064090675025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.0203031360248005</c:v>
+                  <c:v>-7.8360889649274501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57874099014095304</c:v>
+                  <c:v>0.85532146120161501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.1651078297</c:v>
+                  <c:v>14.626846616424899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.011084751566599</c:v>
+                  <c:v>39.941362867704598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99.873615547682604</c:v>
+                  <c:v>102.677147913158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>494.59985117178297</c:v>
+                  <c:v>536.29257051630498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,43 +1726,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-546.94496310066097</c:v>
+                  <c:v>-517.70755654284403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-163.79583453379999</c:v>
+                  <c:v>-160.54068652963699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-86.068710802616906</c:v>
+                  <c:v>-84.812314984665804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-49.792301670281098</c:v>
+                  <c:v>-49.0758415368839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26.868356712562299</c:v>
+                  <c:v>-26.363967909057301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.55141016963527</c:v>
+                  <c:v>-9.1410429716783206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3617964921122496</c:v>
+                  <c:v>5.7370819581130004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.734901829896099</c:v>
+                  <c:v>20.117319046880699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.2085100736303</c:v>
+                  <c:v>35.645054337887302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.067141989429601</c:v>
+                  <c:v>54.637751651233003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81.045948936015094</c:v>
+                  <c:v>81.944949361183504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.528177167943</c:v>
+                  <c:v>132.46736963893301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285.54406733009199</c:v>
+                  <c:v>294.59755134454002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,43 +1774,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-58.147407622924597</c:v>
+                  <c:v>-57.284341524688301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45.3516400894746</c:v>
+                  <c:v>-45.203128050134701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-40.9342654669287</c:v>
+                  <c:v>-40.839257926107699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-37.560751681806799</c:v>
+                  <c:v>-37.476910388078998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-34.363630765337</c:v>
+                  <c:v>-34.279132760700001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-31.0038502429787</c:v>
+                  <c:v>-30.911525686665101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-27.207964294294801</c:v>
+                  <c:v>-27.100151709918698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22.624786448450902</c:v>
+                  <c:v>-22.490096020484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.672273337401201</c:v>
+                  <c:v>-16.4901350060832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.2006562641453105</c:v>
+                  <c:v>-7.9271659214276804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5338142230967797</c:v>
+                  <c:v>6.0144991076159702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.252722380987201</c:v>
+                  <c:v>34.375447086881202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>125.907730568896</c:v>
+                  <c:v>131.404709620711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,37 +1849,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1263.72231172433</c:v>
+                  <c:v>-1097.05655496807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-165.87453468231999</c:v>
+                  <c:v>-161.55395904229999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-71.413014883655507</c:v>
+                  <c:v>-70.007477383614798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.5595479504575</c:v>
+                  <c:v>-30.777562745417001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.10554363417726</c:v>
+                  <c:v>-5.5275209333608002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.696631233584201</c:v>
+                  <c:v>15.2215846065978</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.345737526306301</c:v>
+                  <c:v>35.917414687761799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.026113531299401</c:v>
+                  <c:v>60.778644550008003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.582731931870896</c:v>
+                  <c:v>97.842819307011695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171.14167626416099</c:v>
+                  <c:v>174.30195236427301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>504.82545375777897</c:v>
+                  <c:v>531.09639061384496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,37 +1891,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-829.35899830639403</c:v>
+                  <c:v>-726.956520701763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-157.19008909586401</c:v>
+                  <c:v>-154.610747419555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-102.216038415423</c:v>
+                  <c:v>-101.437815448097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-81.244980143364003</c:v>
+                  <c:v>-80.864143754409398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-69.803335804985906</c:v>
+                  <c:v>-69.570113232924299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-62.311912684759903</c:v>
+                  <c:v>-62.1478550088258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-56.771201659802699</c:v>
+                  <c:v>-56.642965521127401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-52.230815188980401</c:v>
+                  <c:v>-52.119737609565199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-48.042685220874198</c:v>
+                  <c:v>-47.931495000968397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-43.238228655026901</c:v>
+                  <c:v>-43.0835794946737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-31.581363201900501</c:v>
+                  <c:v>-30.797029652966401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,31 +1960,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-297.69874068112802</c:v>
+                  <c:v>-284.68658576216598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-91.424558282267199</c:v>
+                  <c:v>-89.233873129712606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-35.133925204023697</c:v>
+                  <c:v>-34.129701970071402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.6913132302157501</c:v>
+                  <c:v>-2.9992104554100698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.053284317366501</c:v>
+                  <c:v>21.6790532934514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.1187076127758</c:v>
+                  <c:v>46.8310285766186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.234058894305704</c:v>
+                  <c:v>79.263670957623802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132.604231548456</c:v>
+                  <c:v>134.65515782660199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>281.61032141977603</c:v>
+                  <c:v>289.46717107348502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,31 +1996,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-349.22283680263303</c:v>
+                  <c:v>-337.15807904355302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-162.059211193788</c:v>
+                  <c:v>-160.18800974571801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-116.965465695023</c:v>
+                  <c:v>-116.24560680727301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-96.986889415663697</c:v>
+                  <c:v>-96.6187685114988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-86.216312491413603</c:v>
+                  <c:v>-86.009880777249705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-80.335494871641998</c:v>
+                  <c:v>-80.233406958844597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-78.319070983947199</c:v>
+                  <c:v>-78.324276613332302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-81.798999851148906</c:v>
+                  <c:v>-82.016684175025802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-103.03886135977901</c:v>
+                  <c:v>-104.306776183349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,11 +2040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286514528"/>
-        <c:axId val="289886152"/>
+        <c:axId val="174449776"/>
+        <c:axId val="174450168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286514528"/>
+        <c:axId val="174449776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2103,14 +2173,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289886152"/>
+        <c:crossAx val="174450168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289886152"/>
+        <c:axId val="174450168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2239,7 +2309,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286514528"/>
+        <c:crossAx val="174449776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2882,7 +2952,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2936,28 +3006,28 @@
             <v>1</v>
           </cell>
           <cell r="B1">
-            <v>-1.4433150260416301</v>
+            <v>-1.4364782397490099</v>
           </cell>
           <cell r="C1">
-            <v>-1214.79346256797</v>
+            <v>-1093.51359914403</v>
           </cell>
           <cell r="D1">
-            <v>266.283267304589</v>
+            <v>234.81297663777701</v>
           </cell>
           <cell r="E1">
-            <v>0.97598071963320299</v>
+            <v>0.976689232302273</v>
           </cell>
           <cell r="F1">
-            <v>-0.213935407835363</v>
+            <v>-0.20972698105124801</v>
           </cell>
           <cell r="G1">
-            <v>4.1149437159825497E-2</v>
+            <v>4.5746441653141803E-2</v>
           </cell>
           <cell r="H1">
-            <v>-1088.3042810423001</v>
+            <v>-981.04668300298397</v>
           </cell>
           <cell r="I1">
-            <v>644.53716639480297</v>
+            <v>579.76840749346798</v>
           </cell>
         </row>
         <row r="2">
@@ -2965,28 +3035,28 @@
             <v>1</v>
           </cell>
           <cell r="B2">
-            <v>-1.1815156382424801</v>
+            <v>-1.1746788519498601</v>
           </cell>
           <cell r="C2">
-            <v>-224.28572892203999</v>
+            <v>-219.330323641934</v>
           </cell>
           <cell r="D2">
-            <v>13.189376124105101</v>
+            <v>12.025227518755401</v>
           </cell>
           <cell r="E2">
-            <v>0.97330468241830803</v>
+            <v>0.97241572214609295</v>
           </cell>
           <cell r="F2">
-            <v>-5.7236283384886601E-2</v>
+            <v>-5.33146539313544E-2</v>
           </cell>
           <cell r="G2">
-            <v>0.22226561373023901</v>
+            <v>0.22707974590277799</v>
           </cell>
           <cell r="H2">
-            <v>-211.19732148141301</v>
+            <v>-206.78012763161399</v>
           </cell>
           <cell r="I2">
-            <v>119.32723726633</v>
+            <v>116.797477997399</v>
           </cell>
         </row>
         <row r="3">
@@ -2994,28 +3064,28 @@
             <v>1</v>
           </cell>
           <cell r="B3">
-            <v>-0.91971625044333205</v>
+            <v>-0.91287946415071297</v>
           </cell>
           <cell r="C3">
-            <v>-114.94606253413301</v>
+            <v>-113.32561204749599</v>
           </cell>
           <cell r="D3">
-            <v>-10.5324212697031</v>
+            <v>-10.8320743421269</v>
           </cell>
           <cell r="E3">
-            <v>0.91024173129646602</v>
+            <v>0.90781587925644103</v>
           </cell>
           <cell r="F3">
-            <v>8.3404765330099301E-2</v>
+            <v>8.6772344886588998E-2</v>
           </cell>
           <cell r="G3">
-            <v>0.40559047785499402</v>
+            <v>0.410293662554928</v>
           </cell>
           <cell r="H3">
-            <v>-113.1724864664</v>
+            <v>-111.704912652207</v>
           </cell>
           <cell r="I3">
-            <v>65.3919238094566</v>
+            <v>64.642338028275603</v>
           </cell>
         </row>
         <row r="4">
@@ -3023,28 +3093,28 @@
             <v>1</v>
           </cell>
           <cell r="B4">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C4">
-            <v>-70.024372263943405</v>
+            <v>-69.177536938400806</v>
           </cell>
           <cell r="D4">
-            <v>-17.5619387278856</v>
+            <v>-17.660291563501399</v>
           </cell>
           <cell r="E4">
-            <v>0.79108950217017404</v>
+            <v>0.787292076169958</v>
           </cell>
           <cell r="F4">
-            <v>0.19840328325998999</v>
+            <v>0.20098731793785099</v>
           </cell>
           <cell r="G4">
-            <v>0.57863074300265105</v>
+            <v>0.58290246596505801</v>
           </cell>
           <cell r="H4">
-            <v>-72.1243040196604</v>
+            <v>-71.340741246613504</v>
           </cell>
           <cell r="I4">
-            <v>45.836385201560901</v>
+            <v>45.500479367202999</v>
           </cell>
         </row>
         <row r="5">
@@ -3052,28 +3122,28 @@
             <v>1</v>
           </cell>
           <cell r="B5">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C5">
-            <v>-43.803235031401499</v>
+            <v>-43.248149806996999</v>
           </cell>
           <cell r="D5">
-            <v>-19.6508512552121</v>
+            <v>-19.669203423190201</v>
           </cell>
           <cell r="E5">
-            <v>0.62396802254602302</v>
+            <v>0.61905781089198497</v>
           </cell>
           <cell r="F5">
-            <v>0.2799223114519</v>
+            <v>0.28154670355815498</v>
           </cell>
           <cell r="G5">
-            <v>0.72959400106595496</v>
+            <v>0.73314315143030395</v>
           </cell>
           <cell r="H5">
-            <v>-47.589396571906597</v>
+            <v>-47.062626192696101</v>
           </cell>
           <cell r="I5">
-            <v>36.352192571464499</v>
+            <v>36.176211390629398</v>
           </cell>
         </row>
         <row r="6">
@@ -3081,28 +3151,28 @@
             <v>1</v>
           </cell>
           <cell r="B6">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C6">
-            <v>-25.377881563146701</v>
+            <v>-24.9583318468082</v>
           </cell>
           <cell r="D6">
-            <v>-19.468589681833301</v>
+            <v>-19.4427977909404</v>
           </cell>
           <cell r="E6">
-            <v>0.42026634507909399</v>
+            <v>0.41457797058094997</v>
           </cell>
           <cell r="F6">
-            <v>0.32240646285111502</v>
+            <v>0.32296051274815801</v>
           </cell>
           <cell r="G6">
-            <v>0.84819235548647298</v>
+            <v>0.85077706452068103</v>
           </cell>
           <cell r="H6">
-            <v>-29.8780838522773</v>
+            <v>-29.4686176017313</v>
           </cell>
           <cell r="I6">
-            <v>31.2692533175723</v>
+            <v>31.174255550338899</v>
           </cell>
         </row>
         <row r="7">
@@ -3110,28 +3180,28 @@
             <v>1</v>
           </cell>
           <cell r="B7">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C7">
-            <v>-10.7190325177401</v>
+            <v>-10.3667647536146</v>
           </cell>
           <cell r="D7">
-            <v>-17.856751836525302</v>
+            <v>-17.798371176500801</v>
           </cell>
           <cell r="E7">
-            <v>0.19386640245581899</v>
+            <v>0.187787518435134</v>
           </cell>
           <cell r="F7">
-            <v>0.32296051274815801</v>
+            <v>0.32240646285111502</v>
           </cell>
           <cell r="G7">
-            <v>0.92634352440349199</v>
+            <v>0.92778764845831296</v>
           </cell>
           <cell r="H7">
-            <v>-15.3687545710936</v>
+            <v>-15.014473858349101</v>
           </cell>
           <cell r="I7">
-            <v>28.6312160953612</v>
+            <v>28.586650910697699</v>
           </cell>
         </row>
         <row r="8">
@@ -3139,28 +3209,28 @@
             <v>1</v>
           </cell>
           <cell r="B8">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C8">
-            <v>2.12641800479869</v>
+            <v>2.4493802367558102</v>
           </cell>
           <cell r="D8">
-            <v>-15.0412187023566</v>
+            <v>-14.9512390324742</v>
           </cell>
           <cell r="E8">
-            <v>-3.9803023377619103E-2</v>
+            <v>-4.5858151020666801E-2</v>
           </cell>
           <cell r="F8">
-            <v>0.28154670355815498</v>
+            <v>0.2799223114519</v>
           </cell>
           <cell r="G8">
-            <v>0.95872163480623296</v>
+            <v>0.95892675921385695</v>
           </cell>
           <cell r="H8">
-            <v>-2.2539592518934399</v>
+            <v>-1.91874898151873</v>
           </cell>
           <cell r="I8">
-            <v>27.664277787050601</v>
+            <v>27.6583601102949</v>
           </cell>
         </row>
         <row r="9">
@@ -3168,28 +3238,28 @@
             <v>1</v>
           </cell>
           <cell r="B9">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C9">
-            <v>14.381532264202599</v>
+            <v>14.703005696166001</v>
           </cell>
           <cell r="D9">
-            <v>-10.915075096353499</v>
+            <v>-10.786727793768801</v>
           </cell>
           <cell r="E9">
-            <v>-0.26481774720765699</v>
+            <v>-0.270436471530765</v>
           </cell>
           <cell r="F9">
-            <v>0.20098731793785099</v>
+            <v>0.19840328325998999</v>
           </cell>
           <cell r="G9">
-            <v>0.94312017197810405</v>
+            <v>0.94207231784913603</v>
           </cell>
           <cell r="H9">
-            <v>10.669022537396501</v>
+            <v>11.0137540026585</v>
           </cell>
           <cell r="I9">
-            <v>28.1219110923127</v>
+            <v>28.153190708637499</v>
           </cell>
         </row>
         <row r="10">
@@ -3197,28 +3267,28 @@
             <v>1</v>
           </cell>
           <cell r="B10">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C10">
-            <v>27.094753372566199</v>
+            <v>27.4433791882376</v>
           </cell>
           <cell r="D10">
-            <v>-5.0469220934574697</v>
+            <v>-4.8633668524454201</v>
           </cell>
           <cell r="E10">
-            <v>-0.465843387459692</v>
+            <v>-0.470642801685621</v>
           </cell>
           <cell r="F10">
-            <v>8.6772344886588998E-2</v>
+            <v>8.3404765330099301E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.88060234982820795</v>
+            <v>0.87837292668987599</v>
           </cell>
           <cell r="H10">
-            <v>24.528142539453</v>
+            <v>24.914650937749499</v>
           </cell>
           <cell r="I10">
-            <v>30.118408871960199</v>
+            <v>30.194853256331101</v>
           </cell>
         </row>
         <row r="11">
@@ -3226,28 +3296,28 @@
             <v>1</v>
           </cell>
           <cell r="B11">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C11">
-            <v>41.558362998941703</v>
+            <v>41.976073425667799</v>
           </cell>
           <cell r="D11">
-            <v>3.5215175414411299</v>
+            <v>3.7965037756158302</v>
           </cell>
           <cell r="E11">
-            <v>-0.629180378961123</v>
+            <v>-0.63283341094178402</v>
           </cell>
           <cell r="F11">
-            <v>-5.33146539313544E-2</v>
+            <v>-5.7236283384886601E-2</v>
           </cell>
           <cell r="G11">
-            <v>0.77542865462047195</v>
+            <v>0.772169593975359</v>
           </cell>
           <cell r="H11">
-            <v>40.835396528342599</v>
+            <v>41.3142068691633</v>
           </cell>
           <cell r="I11">
-            <v>34.203458264920698</v>
+            <v>34.347819226071799</v>
           </cell>
         </row>
         <row r="12">
@@ -3255,28 +3325,28 @@
             <v>1</v>
           </cell>
           <cell r="B12">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C12">
-            <v>60.007768121187397</v>
+            <v>60.5780284437906</v>
           </cell>
           <cell r="D12">
-            <v>16.922534723030498</v>
+            <v>17.3734077835066</v>
           </cell>
           <cell r="E12">
-            <v>-0.74369757566827099</v>
+            <v>-0.74595527731110201</v>
           </cell>
           <cell r="F12">
-            <v>-0.20972698105124801</v>
+            <v>-0.213935407835363</v>
           </cell>
           <cell r="G12">
-            <v>0.634766499875556</v>
+            <v>0.63069990132077303</v>
           </cell>
           <cell r="H12">
-            <v>62.341695934554402</v>
+            <v>63.016902603920599</v>
           </cell>
           <cell r="I12">
-            <v>41.782831373323098</v>
+            <v>42.052236840680401</v>
           </cell>
         </row>
         <row r="13">
@@ -3284,28 +3354,28 @@
             <v>1</v>
           </cell>
           <cell r="B13">
-            <v>1.6982776275481599</v>
+            <v>1.7051144138407801</v>
           </cell>
           <cell r="C13">
-            <v>87.688932357338501</v>
+            <v>88.636712126421401</v>
           </cell>
           <cell r="D13">
-            <v>40.673143094869801</v>
+            <v>41.541389245934802</v>
           </cell>
           <cell r="E13">
-            <v>-0.80159081987415903</v>
+            <v>-0.80229933254322905</v>
           </cell>
           <cell r="F13">
-            <v>-0.37180539486346198</v>
+            <v>-0.37601382164757802</v>
           </cell>
           <cell r="G13">
-            <v>0.46820177898412302</v>
+            <v>0.463604774490807</v>
           </cell>
           <cell r="H13">
-            <v>95.649163744501905</v>
+            <v>96.805290437953204</v>
           </cell>
           <cell r="I13">
-            <v>56.647246585182799</v>
+            <v>57.208948408405199</v>
           </cell>
         </row>
         <row r="14">
@@ -3313,28 +3383,28 @@
             <v>1</v>
           </cell>
           <cell r="B14">
-            <v>1.9600770153473099</v>
+            <v>1.9669138016399299</v>
           </cell>
           <cell r="C14">
-            <v>142.53258165012701</v>
+            <v>144.802168647363</v>
           </cell>
           <cell r="D14">
-            <v>94.289297415220204</v>
+            <v>96.608980340364496</v>
           </cell>
           <cell r="E14">
-            <v>-0.79891478265926397</v>
+            <v>-0.798025822387049</v>
           </cell>
           <cell r="F14">
-            <v>-0.52850451931393905</v>
+            <v>-0.53242614876747096</v>
           </cell>
           <cell r="G14">
-            <v>0.28708560241370901</v>
+            <v>0.28227147024117</v>
           </cell>
           <cell r="H14">
-            <v>163.51186504157201</v>
+            <v>166.349007217104</v>
           </cell>
           <cell r="I14">
-            <v>92.384784896020193</v>
+            <v>93.960404865126705</v>
           </cell>
         </row>
         <row r="15">
@@ -3342,28 +3412,28 @@
             <v>1</v>
           </cell>
           <cell r="B15">
-            <v>2.2218764031464602</v>
+            <v>2.2287131894390799</v>
           </cell>
           <cell r="C15">
-            <v>363.23060079457798</v>
+            <v>379.22223943582401</v>
           </cell>
           <cell r="D15">
-            <v>330.30310760572701</v>
+            <v>347.72689951908302</v>
           </cell>
           <cell r="E15">
-            <v>-0.73585183153742095</v>
+            <v>-0.73342597949739596</v>
           </cell>
           <cell r="F15">
-            <v>-0.669145568028925</v>
+            <v>-0.67251314758541503</v>
           </cell>
           <cell r="G15">
-            <v>0.103760738288954</v>
+            <v>9.9057553589020797E-2</v>
           </cell>
           <cell r="H15">
-            <v>442.38007191234402</v>
+            <v>462.67867595038399</v>
           </cell>
           <cell r="I15">
-            <v>255.610571619827</v>
+            <v>267.74678623473</v>
           </cell>
         </row>
         <row r="16">
@@ -3371,28 +3441,28 @@
             <v>2</v>
           </cell>
           <cell r="B16">
-            <v>-1.4433150260416301</v>
+            <v>-1.4364782397490099</v>
           </cell>
           <cell r="C16">
-            <v>-24375.067488598401</v>
+            <v>-7453.3072679718098</v>
           </cell>
           <cell r="D16">
-            <v>4278.00144491841</v>
+            <v>1274.5855048351</v>
           </cell>
           <cell r="E16">
-            <v>0.98494340149180704</v>
+            <v>0.985668371392871</v>
           </cell>
           <cell r="F16">
-            <v>-0.17286472321423199</v>
+            <v>-0.16855854368843701</v>
           </cell>
           <cell r="G16">
-            <v>2.06961972706148E-3</v>
+            <v>6.77340279008673E-3</v>
           </cell>
           <cell r="H16">
-            <v>-22140.939097574701</v>
+            <v>-6779.7307346581701</v>
           </cell>
           <cell r="I16">
-            <v>11098.184519311701</v>
+            <v>3391.0609375471399</v>
           </cell>
         </row>
         <row r="17">
@@ -3400,28 +3470,28 @@
             <v>2</v>
           </cell>
           <cell r="B17">
-            <v>-1.1815156382424801</v>
+            <v>-1.1746788519498601</v>
           </cell>
           <cell r="C17">
-            <v>-268.45690795156099</v>
+            <v>-261.338540892867</v>
           </cell>
           <cell r="D17">
-            <v>3.42356280621985</v>
+            <v>2.26720608515472</v>
           </cell>
           <cell r="E17">
-            <v>0.98220520566325198</v>
+            <v>0.98129559674765798</v>
           </cell>
           <cell r="F17">
-            <v>-1.2525813680275799E-2</v>
+            <v>-8.5130931728659692E-3</v>
           </cell>
           <cell r="G17">
-            <v>0.18739273721159699</v>
+            <v>0.192318691364846</v>
           </cell>
           <cell r="H17">
-            <v>-256.31869651881499</v>
+            <v>-249.82624433719101</v>
           </cell>
           <cell r="I17">
-            <v>122.571567914075</v>
+            <v>119.43208147231699</v>
           </cell>
         </row>
         <row r="18">
@@ -3429,28 +3499,28 @@
             <v>2</v>
           </cell>
           <cell r="B18">
-            <v>-0.91971625044333205</v>
+            <v>-0.91287946415071297</v>
           </cell>
           <cell r="C18">
-            <v>-125.346400808124</v>
+            <v>-123.423343156554</v>
           </cell>
           <cell r="D18">
-            <v>-17.945591062270601</v>
+            <v>-18.182897402031799</v>
           </cell>
           <cell r="E18">
-            <v>0.91767743723870598</v>
+            <v>0.91519523785085199</v>
           </cell>
           <cell r="F18">
-            <v>0.131382025407872</v>
+            <v>0.13482782662565099</v>
           </cell>
           <cell r="G18">
-            <v>0.374975845332369</v>
+            <v>0.37978827494082101</v>
           </cell>
           <cell r="H18">
-            <v>-125.25574978564801</v>
+            <v>-123.48035947163299</v>
           </cell>
           <cell r="I18">
-            <v>61.254669871806598</v>
+            <v>60.478490599308003</v>
           </cell>
         </row>
         <row r="19">
@@ -3458,28 +3528,28 @@
             <v>2</v>
           </cell>
           <cell r="B19">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C19">
-            <v>-73.831025213997194</v>
+            <v>-72.893352939740495</v>
           </cell>
           <cell r="D19">
-            <v>-23.107217912586499</v>
+            <v>-23.1690857305706</v>
           </cell>
           <cell r="E19">
-            <v>0.79575755699912298</v>
+            <v>0.79187192492526204</v>
           </cell>
           <cell r="F19">
-            <v>0.24905171263530201</v>
+            <v>0.25169576890491502</v>
           </cell>
           <cell r="G19">
-            <v>0.55203546526668801</v>
+            <v>0.55640641120544398</v>
           </cell>
           <cell r="H19">
-            <v>-77.355022305741798</v>
+            <v>-76.473988303758006</v>
           </cell>
           <cell r="I19">
-            <v>41.607873154742997</v>
+            <v>41.2810153750276</v>
           </cell>
         </row>
         <row r="20">
@@ -3487,28 +3557,28 @@
             <v>2</v>
           </cell>
           <cell r="B20">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C20">
-            <v>-45.291727332381498</v>
+            <v>-44.697735833084998</v>
           </cell>
           <cell r="D20">
-            <v>-24.1020872329924</v>
+            <v>-24.0987107426301</v>
           </cell>
           <cell r="E20">
-            <v>0.62475420330070197</v>
+            <v>0.61972993794535802</v>
           </cell>
           <cell r="F20">
-            <v>0.33246425327581902</v>
+            <v>0.334126376532001</v>
           </cell>
           <cell r="G20">
-            <v>0.70650527652088702</v>
+            <v>0.71013686604755</v>
           </cell>
           <cell r="H20">
-            <v>-50.286151389403997</v>
+            <v>-49.715892082337703</v>
           </cell>
           <cell r="I20">
-            <v>32.510757356044799</v>
+            <v>32.3444996505756</v>
           </cell>
         </row>
         <row r="21">
@@ -3516,28 +3586,28 @@
             <v>2</v>
           </cell>
           <cell r="B21">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C21">
-            <v>-25.757121552430601</v>
+            <v>-25.316139128950901</v>
           </cell>
           <cell r="D21">
-            <v>-23.2585188350333</v>
+            <v>-23.219414537663699</v>
           </cell>
           <cell r="E21">
-            <v>0.41632097210158697</v>
+            <v>0.41050046884573499</v>
           </cell>
           <cell r="F21">
-            <v>0.37593522053051098</v>
+            <v>0.37650213982014202</v>
           </cell>
           <cell r="G21">
-            <v>0.82785841673142602</v>
+            <v>0.83050316302124005</v>
           </cell>
           <cell r="H21">
-            <v>-31.323002340750399</v>
+            <v>-30.889195806727098</v>
           </cell>
           <cell r="I21">
-            <v>27.745108525226801</v>
+            <v>27.656753927556601</v>
           </cell>
         </row>
         <row r="22">
@@ -3545,28 +3615,28 @@
             <v>2</v>
           </cell>
           <cell r="B22">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C22">
-            <v>-10.4184026723517</v>
+            <v>-10.051113470955899</v>
           </cell>
           <cell r="D22">
-            <v>-21.241759127327501</v>
+            <v>-21.175307200510701</v>
           </cell>
           <cell r="E22">
-            <v>0.184662243655797</v>
+            <v>0.17844216017748701</v>
           </cell>
           <cell r="F22">
-            <v>0.37650213982014202</v>
+            <v>0.37593522053051098</v>
           </cell>
           <cell r="G22">
-            <v>0.90782486993850298</v>
+            <v>0.90930253790246696</v>
           </cell>
           <cell r="H22">
-            <v>-16.046526025960102</v>
+            <v>-15.6755452905886</v>
           </cell>
           <cell r="I22">
-            <v>25.301159261358201</v>
+            <v>25.260043449036999</v>
           </cell>
         </row>
         <row r="23">
@@ -3574,28 +3644,28 @@
             <v>2</v>
           </cell>
           <cell r="B23">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C23">
-            <v>2.9630094660608699</v>
+            <v>3.2995234196323899</v>
           </cell>
           <cell r="D23">
-            <v>-18.1872479887219</v>
+            <v>-18.092739134201398</v>
           </cell>
           <cell r="E23">
-            <v>-5.4434822527237602E-2</v>
+            <v>-6.0630597818132903E-2</v>
           </cell>
           <cell r="F23">
-            <v>0.334126376532001</v>
+            <v>0.33246425327581902</v>
           </cell>
           <cell r="G23">
-            <v>0.940955054506868</v>
+            <v>0.94116494351519797</v>
           </cell>
           <cell r="H23">
-            <v>-2.3498604108998098</v>
+            <v>-2.0003694522196001</v>
           </cell>
           <cell r="I23">
-            <v>24.4103281083637</v>
+            <v>24.404884365909201</v>
           </cell>
         </row>
         <row r="24">
@@ -3603,28 +3673,28 @@
             <v>2</v>
           </cell>
           <cell r="B24">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C24">
-            <v>15.7629899351946</v>
+            <v>16.0999967434065</v>
           </cell>
           <cell r="D24">
-            <v>-13.9368112895958</v>
+            <v>-13.8064090675025</v>
           </cell>
           <cell r="E24">
-            <v>-0.28467615651372702</v>
+            <v>-0.29042539177013599</v>
           </cell>
           <cell r="F24">
-            <v>0.25169576890491502</v>
+            <v>0.24905171263530201</v>
           </cell>
           <cell r="G24">
-            <v>0.92499120310840499</v>
+            <v>0.92391900957204298</v>
           </cell>
           <cell r="H24">
-            <v>11.1308010334223</v>
+            <v>11.491006428126701</v>
           </cell>
           <cell r="I24">
-            <v>24.831610872134998</v>
+            <v>24.860427567536501</v>
           </cell>
         </row>
         <row r="25">
@@ -3632,28 +3702,28 @@
             <v>2</v>
           </cell>
           <cell r="B25">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C25">
-            <v>29.169984464746399</v>
+            <v>29.540376458208101</v>
           </cell>
           <cell r="D25">
-            <v>-8.0203031360248005</v>
+            <v>-7.8360889649274501</v>
           </cell>
           <cell r="E25">
-            <v>-0.49037119188428702</v>
+            <v>-0.495282086224545</v>
           </cell>
           <cell r="F25">
-            <v>0.13482782662565099</v>
+            <v>0.131382025407872</v>
           </cell>
           <cell r="G25">
-            <v>0.86102122583440699</v>
+            <v>0.85874001797097199</v>
           </cell>
           <cell r="H25">
-            <v>25.6686482875762</v>
+            <v>26.076205941541101</v>
           </cell>
           <cell r="I25">
-            <v>26.676487090636801</v>
+            <v>26.747352091506102</v>
           </cell>
         </row>
         <row r="26">
@@ -3661,28 +3731,28 @@
             <v>2</v>
           </cell>
           <cell r="B26">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C26">
-            <v>44.698611736855902</v>
+            <v>45.152579164073899</v>
           </cell>
           <cell r="D26">
-            <v>0.57874099014095304</v>
+            <v>0.85532146120161501</v>
           </cell>
           <cell r="E26">
-            <v>-0.65750215190553196</v>
+            <v>-0.66124003599598702</v>
           </cell>
           <cell r="F26">
-            <v>-8.5130931728659692E-3</v>
+            <v>-1.2525813680275799E-2</v>
           </cell>
           <cell r="G26">
-            <v>0.753404570920713</v>
+            <v>0.75006980927622402</v>
           </cell>
           <cell r="H26">
-            <v>43.005373881041898</v>
+            <v>43.519388720051602</v>
           </cell>
           <cell r="I26">
-            <v>30.4869687579226</v>
+            <v>30.622511840464199</v>
           </cell>
         </row>
         <row r="27">
@@ -3690,28 +3760,28 @@
             <v>2</v>
           </cell>
           <cell r="B27">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C27">
-            <v>65.101513776451696</v>
+            <v>65.744506749614004</v>
           </cell>
           <cell r="D27">
-            <v>14.1651078297</v>
+            <v>14.626846616424899</v>
           </cell>
           <cell r="E27">
-            <v>-0.77467933784898402</v>
+            <v>-0.77698948106601795</v>
           </cell>
           <cell r="F27">
-            <v>-0.16855854368843701</v>
+            <v>-0.17286472321423199</v>
           </cell>
           <cell r="G27">
-            <v>0.60947513555475896</v>
+            <v>0.60531407862433295</v>
           </cell>
           <cell r="H27">
-            <v>66.436841039277198</v>
+            <v>67.184856946623896</v>
           </cell>
           <cell r="I27">
-            <v>37.686560576140501</v>
+            <v>37.945625959892503</v>
           </cell>
         </row>
         <row r="28">
@@ -3719,28 +3789,28 @@
             <v>2</v>
           </cell>
           <cell r="B28">
-            <v>1.6982776275481599</v>
+            <v>1.7051144138407801</v>
           </cell>
           <cell r="C28">
-            <v>97.284254105749</v>
+            <v>98.423311939621001</v>
           </cell>
           <cell r="D28">
-            <v>39.011084751566599</v>
+            <v>39.941362867704598</v>
           </cell>
           <cell r="E28">
-            <v>-0.83391731813705305</v>
+            <v>-0.83464228803811702</v>
           </cell>
           <cell r="F28">
-            <v>-0.33440169195603903</v>
+            <v>-0.33870787148183401</v>
           </cell>
           <cell r="G28">
-            <v>0.439041472902096</v>
+            <v>0.43433768983907101</v>
           </cell>
           <cell r="H28">
-            <v>104.37128872840201</v>
+            <v>105.728441598483</v>
           </cell>
           <cell r="I28">
-            <v>52.316291360606499</v>
+            <v>52.882865459468299</v>
           </cell>
         </row>
         <row r="29">
@@ -3748,28 +3818,28 @@
             <v>2</v>
           </cell>
           <cell r="B29">
-            <v>1.9600770153473099</v>
+            <v>1.9669138016399299</v>
           </cell>
           <cell r="C29">
-            <v>167.79068437619901</v>
+            <v>170.92558961416401</v>
           </cell>
           <cell r="D29">
-            <v>99.873615547682604</v>
+            <v>102.677147913158</v>
           </cell>
           <cell r="E29">
-            <v>-0.831179122308497</v>
+            <v>-0.830269513392903</v>
           </cell>
           <cell r="F29">
-            <v>-0.49474060148999599</v>
+            <v>-0.49875332199740602</v>
           </cell>
           <cell r="G29">
-            <v>0.25371835541755999</v>
+            <v>0.24879240126431101</v>
           </cell>
           <cell r="H29">
-            <v>189.31331184186399</v>
+            <v>193.11786105749999</v>
           </cell>
           <cell r="I29">
-            <v>90.529601525811302</v>
+            <v>92.322038370191706</v>
           </cell>
         </row>
         <row r="30">
@@ -3777,28 +3847,28 @@
             <v>2</v>
           </cell>
           <cell r="B30">
-            <v>2.2218764031464602</v>
+            <v>2.2287131894390799</v>
           </cell>
           <cell r="C30">
-            <v>593.73142004133899</v>
+            <v>638.25247681357598</v>
           </cell>
           <cell r="D30">
-            <v>494.59985117178297</v>
+            <v>536.29257051630498</v>
           </cell>
           <cell r="E30">
-            <v>-0.766651353883952</v>
+            <v>-0.76416915449609701</v>
           </cell>
           <cell r="F30">
-            <v>-0.63864844057814396</v>
+            <v>-0.642094241795923</v>
           </cell>
           <cell r="G30">
-            <v>6.6135247296789199E-2</v>
+            <v>6.1322817688336403E-2</v>
           </cell>
           <cell r="H30">
-            <v>710.17925506257995</v>
+            <v>764.74621487792399</v>
           </cell>
           <cell r="I30">
-            <v>347.30378360361902</v>
+            <v>374.55913608654299</v>
           </cell>
         </row>
         <row r="31">
@@ -3806,28 +3876,28 @@
             <v>3</v>
           </cell>
           <cell r="B31">
-            <v>-1.1815156382424801</v>
+            <v>-1.1746788519498601</v>
           </cell>
           <cell r="C31">
-            <v>-546.94496310066097</v>
+            <v>-517.70755654284403</v>
           </cell>
           <cell r="D31">
-            <v>-58.147407622924597</v>
+            <v>-57.284341524688301</v>
           </cell>
           <cell r="E31">
-            <v>0.99011272811862405</v>
+            <v>0.98916316800634496</v>
           </cell>
           <cell r="F31">
-            <v>0.10526194092396</v>
+            <v>0.109450905291216</v>
           </cell>
           <cell r="G31">
-            <v>9.2718441587499395E-2</v>
+            <v>9.7860750000106994E-2</v>
           </cell>
           <cell r="H31">
-            <v>-540.79749595093097</v>
+            <v>-512.52938409296598</v>
           </cell>
           <cell r="I31">
-            <v>143.02624791587701</v>
+            <v>135.510619046481</v>
           </cell>
         </row>
         <row r="32">
@@ -3835,28 +3905,28 @@
             <v>3</v>
           </cell>
           <cell r="B32">
-            <v>-0.91971625044333205</v>
+            <v>-0.91287946415071297</v>
           </cell>
           <cell r="C32">
-            <v>-163.79583453379999</v>
+            <v>-160.54068652963699</v>
           </cell>
           <cell r="D32">
-            <v>-45.3516400894746</v>
+            <v>-45.203128050134701</v>
           </cell>
           <cell r="E32">
-            <v>0.92275081688413196</v>
+            <v>0.92015959609789899</v>
           </cell>
           <cell r="F32">
-            <v>0.25549039790118799</v>
+            <v>0.25908754315246302</v>
           </cell>
           <cell r="G32">
-            <v>0.28854044174076798</v>
+            <v>0.29356423946416099</v>
           </cell>
           <cell r="H32">
-            <v>-169.92685758462699</v>
+            <v>-166.76466742632601</v>
           </cell>
           <cell r="I32">
-            <v>45.959487456463997</v>
+            <v>45.172977597928401</v>
           </cell>
         </row>
         <row r="33">
@@ -3864,28 +3934,28 @@
             <v>3</v>
           </cell>
           <cell r="B33">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C33">
-            <v>-86.068710802616906</v>
+            <v>-84.812314984665804</v>
           </cell>
           <cell r="D33">
-            <v>-40.9342654669287</v>
+            <v>-40.839257926107699</v>
           </cell>
           <cell r="E33">
-            <v>0.79547605826572299</v>
+            <v>0.791419764219922</v>
           </cell>
           <cell r="F33">
-            <v>0.378328289548925</v>
+            <v>0.38108847617990899</v>
           </cell>
           <cell r="G33">
-            <v>0.47337674853441097</v>
+            <v>0.477939672055958</v>
           </cell>
           <cell r="H33">
-            <v>-94.170814716448106</v>
+            <v>-92.939544407524195</v>
           </cell>
           <cell r="I33">
-            <v>28.013988549130101</v>
+            <v>27.746537038496299</v>
           </cell>
         </row>
         <row r="34">
@@ -3893,28 +3963,28 @@
             <v>3</v>
           </cell>
           <cell r="B34">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C34">
-            <v>-49.792301670281098</v>
+            <v>-49.0758415368839</v>
           </cell>
           <cell r="D34">
-            <v>-37.560751681806799</v>
+            <v>-37.476910388078998</v>
           </cell>
           <cell r="E34">
-            <v>0.61696201673175699</v>
+            <v>0.61171707916226703</v>
           </cell>
           <cell r="F34">
-            <v>0.465404416550593</v>
+            <v>0.46713954240380801</v>
           </cell>
           <cell r="G34">
-            <v>0.63463107311688005</v>
+            <v>0.63842216673917496</v>
           </cell>
           <cell r="H34">
-            <v>-58.440003121955897</v>
+            <v>-57.729406503750397</v>
           </cell>
           <cell r="I34">
-            <v>20.895873799146798</v>
+            <v>20.7717894267372</v>
           </cell>
         </row>
         <row r="35">
@@ -3922,28 +3992,28 @@
             <v>3</v>
           </cell>
           <cell r="B35">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C35">
-            <v>-26.868356712562299</v>
+            <v>-26.363967909057301</v>
           </cell>
           <cell r="D35">
-            <v>-34.363630765337</v>
+            <v>-34.279132760700001</v>
           </cell>
           <cell r="E35">
-            <v>0.39937412920437299</v>
+            <v>0.39329798193888599</v>
           </cell>
           <cell r="F35">
-            <v>0.51078468475113104</v>
+            <v>0.51137650386711098</v>
           </cell>
           <cell r="G35">
-            <v>0.76131419975325199</v>
+            <v>0.76407510671101497</v>
           </cell>
           <cell r="H35">
-            <v>-35.556849702015903</v>
+            <v>-35.0493199905411</v>
           </cell>
           <cell r="I35">
-            <v>17.418788218012299</v>
+            <v>17.3558472150082</v>
           </cell>
         </row>
         <row r="36">
@@ -3951,28 +4021,28 @@
             <v>3</v>
           </cell>
           <cell r="B36">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C36">
-            <v>-9.55141016963527</v>
+            <v>-9.1410429716783206</v>
           </cell>
           <cell r="D36">
-            <v>-31.0038502429787</v>
+            <v>-30.911525686665101</v>
           </cell>
           <cell r="E36">
-            <v>0.157540650637576</v>
+            <v>0.151047373070927</v>
           </cell>
           <cell r="F36">
-            <v>0.51137650386711098</v>
+            <v>0.51078468475113104</v>
           </cell>
           <cell r="G36">
-            <v>0.84479288271702302</v>
+            <v>0.84633545176369596</v>
           </cell>
           <cell r="H36">
-            <v>-18.0011648581931</v>
+            <v>-17.581514445312699</v>
           </cell>
           <cell r="I36">
-            <v>15.697540881519799</v>
+            <v>15.6689298377283</v>
           </cell>
         </row>
         <row r="37">
@@ -3980,28 +4050,28 @@
             <v>3</v>
           </cell>
           <cell r="B37">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C37">
-            <v>5.3617964921122496</v>
+            <v>5.7370819581130004</v>
           </cell>
           <cell r="D37">
-            <v>-27.207964294294801</v>
+            <v>-27.100151709918698</v>
           </cell>
           <cell r="E37">
-            <v>-9.2057867053025502E-2</v>
+            <v>-9.8525768785318796E-2</v>
           </cell>
           <cell r="F37">
-            <v>0.46713954240380801</v>
+            <v>0.465404416550593</v>
           </cell>
           <cell r="G37">
-            <v>0.87937818771925802</v>
+            <v>0.87959729532352604</v>
           </cell>
           <cell r="H37">
-            <v>-2.6248410515827398</v>
+            <v>-2.2343943544701999</v>
           </cell>
           <cell r="I37">
-            <v>15.0801680074205</v>
+            <v>15.0764115389757</v>
           </cell>
         </row>
         <row r="38">
@@ -4009,28 +4079,28 @@
             <v>3</v>
           </cell>
           <cell r="B38">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C38">
-            <v>19.734901829896099</v>
+            <v>20.117319046880699</v>
           </cell>
           <cell r="D38">
-            <v>-22.624786448450902</v>
+            <v>-22.490096020484</v>
           </cell>
           <cell r="E38">
-            <v>-0.33241169736787102</v>
+            <v>-0.33841344645146498</v>
           </cell>
           <cell r="F38">
-            <v>0.38108847617990899</v>
+            <v>0.378328289548925</v>
           </cell>
           <cell r="G38">
-            <v>0.86271318337897496</v>
+            <v>0.86159389771969996</v>
           </cell>
           <cell r="H38">
-            <v>12.458488113233599</v>
+            <v>12.8634395707784</v>
           </cell>
           <cell r="I38">
-            <v>15.3714711544428</v>
+            <v>15.3914400368486</v>
           </cell>
         </row>
         <row r="39">
@@ -4038,28 +4108,28 @@
             <v>3</v>
           </cell>
           <cell r="B39">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C39">
-            <v>35.2085100736303</v>
+            <v>35.645054337887302</v>
           </cell>
           <cell r="D39">
-            <v>-16.672273337401201</v>
+            <v>-16.4901350060832</v>
           </cell>
           <cell r="E39">
-            <v>-0.547141123974489</v>
+            <v>-0.55226771112769701</v>
           </cell>
           <cell r="F39">
-            <v>0.25908754315246302</v>
+            <v>0.25549039790118799</v>
           </cell>
           <cell r="G39">
-            <v>0.79593356220174005</v>
+            <v>0.79355216074689505</v>
           </cell>
           <cell r="H39">
-            <v>28.987301903104701</v>
+            <v>29.457669160030399</v>
           </cell>
           <cell r="I39">
-            <v>16.661152943700301</v>
+            <v>16.7111520437244</v>
           </cell>
         </row>
         <row r="40">
@@ -4067,28 +4137,28 @@
             <v>3</v>
           </cell>
           <cell r="B40">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C40">
-            <v>54.067141989429601</v>
+            <v>54.637751651233003</v>
           </cell>
           <cell r="D40">
-            <v>-8.2006562641453105</v>
+            <v>-7.9271659214276804</v>
           </cell>
           <cell r="E40">
-            <v>-0.72161269130679395</v>
+            <v>-0.72551474808720995</v>
           </cell>
           <cell r="F40">
-            <v>0.109450905291216</v>
+            <v>0.10526194092396</v>
           </cell>
           <cell r="G40">
-            <v>0.68359024501224197</v>
+            <v>0.68010901633552201</v>
           </cell>
           <cell r="H40">
-            <v>49.479223621258903</v>
+            <v>50.104149442607003</v>
           </cell>
           <cell r="I40">
-            <v>19.3992979122017</v>
+            <v>19.498595805007302</v>
           </cell>
         </row>
         <row r="41">
@@ -4096,28 +4166,28 @@
             <v>3</v>
           </cell>
           <cell r="B41">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C41">
-            <v>81.045948936015094</v>
+            <v>81.944949361183504</v>
           </cell>
           <cell r="D41">
-            <v>5.5338142230967797</v>
+            <v>6.0144991076159702</v>
           </cell>
           <cell r="E41">
-            <v>-0.84393645037898701</v>
+            <v>-0.84634805806547997</v>
           </cell>
           <cell r="F41">
-            <v>-5.7623947819824002E-2</v>
+            <v>-6.21192603040229E-2</v>
           </cell>
           <cell r="G41">
-            <v>0.53333924322083404</v>
+            <v>0.52899542730355598</v>
           </cell>
           <cell r="H41">
-            <v>79.255458224015399</v>
+            <v>80.254244088054193</v>
           </cell>
           <cell r="I41">
-            <v>24.8644197505199</v>
+            <v>25.0685925216093</v>
           </cell>
         </row>
         <row r="42">
@@ -4125,28 +4195,28 @@
             <v>3</v>
           </cell>
           <cell r="B42">
-            <v>1.6982776275481599</v>
+            <v>1.7051144138407801</v>
           </cell>
           <cell r="C42">
-            <v>130.528177167943</v>
+            <v>132.46736963893301</v>
           </cell>
           <cell r="D42">
-            <v>33.252722380987201</v>
+            <v>34.375447086881202</v>
           </cell>
           <cell r="E42">
-            <v>-0.90577623915986805</v>
+            <v>-0.90653305067397205</v>
           </cell>
           <cell r="F42">
-            <v>-0.23075114104538999</v>
+            <v>-0.23524645352958901</v>
           </cell>
           <cell r="G42">
-            <v>0.35541991429808101</v>
+            <v>0.350509535016511</v>
           </cell>
           <cell r="H42">
-            <v>134.58993688907</v>
+            <v>136.76887226563301</v>
           </cell>
           <cell r="I42">
-            <v>37.3112768288658</v>
+            <v>37.833980214668799</v>
           </cell>
         </row>
         <row r="43">
@@ -4154,28 +4224,28 @@
             <v>3</v>
           </cell>
           <cell r="B43">
-            <v>1.9600770153473099</v>
+            <v>1.9669138016399299</v>
           </cell>
           <cell r="C43">
-            <v>285.54406733009199</v>
+            <v>294.59755134454002</v>
           </cell>
           <cell r="D43">
-            <v>125.907730568896</v>
+            <v>131.404709620711</v>
           </cell>
           <cell r="E43">
-            <v>-0.90291777823910202</v>
+            <v>-0.90196821812682304</v>
           </cell>
           <cell r="F43">
-            <v>-0.39813234227337302</v>
+            <v>-0.40232130664062898</v>
           </cell>
           <cell r="G43">
-            <v>0.161957166484474</v>
+            <v>0.15681485807186701</v>
           </cell>
           <cell r="H43">
-            <v>309.59976719399401</v>
+            <v>319.84539310327301</v>
           </cell>
           <cell r="I43">
-            <v>81.880728718100102</v>
+            <v>84.565780155793107</v>
           </cell>
         </row>
         <row r="44">
@@ -4183,28 +4253,28 @@
             <v>4</v>
           </cell>
           <cell r="B44">
-            <v>-0.91971625044333205</v>
+            <v>-0.91287946415071297</v>
           </cell>
           <cell r="C44">
-            <v>-279.33000856566701</v>
+            <v>-270.08950861327202</v>
           </cell>
           <cell r="D44">
-            <v>-127.70227392261801</v>
+            <v>-124.951142615056</v>
           </cell>
           <cell r="E44">
-            <v>0.89707606333150203</v>
+            <v>0.894432017030096</v>
           </cell>
           <cell r="F44">
-            <v>0.41011939160146599</v>
+            <v>0.41378986948887198</v>
           </cell>
           <cell r="G44">
-            <v>0.164488969934451</v>
+            <v>0.169615184520301</v>
           </cell>
           <cell r="H44">
-            <v>-304.156130750675</v>
+            <v>-294.51478422429898</v>
           </cell>
           <cell r="I44">
-            <v>0</v>
+            <v>-1.4210854715202001E-14</v>
           </cell>
         </row>
         <row r="45">
@@ -4212,28 +4282,28 @@
             <v>4</v>
           </cell>
           <cell r="B45">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C45">
-            <v>-111.287873234369</v>
+            <v>-109.24694139707201</v>
           </cell>
           <cell r="D45">
-            <v>-77.671866273539706</v>
+            <v>-77.064229078245702</v>
           </cell>
           <cell r="E45">
-            <v>0.76720663785635601</v>
+            <v>0.76306765080971195</v>
           </cell>
           <cell r="F45">
-            <v>0.53546149861499603</v>
+            <v>0.53827795535678202</v>
           </cell>
           <cell r="G45">
-            <v>0.35309341303701303</v>
+            <v>0.35774935788155998</v>
           </cell>
           <cell r="H45">
-            <v>-128.82444241044499</v>
+            <v>-126.694976344598</v>
           </cell>
           <cell r="I45">
-            <v>7.1054273576010003E-15</v>
+            <v>-7.1054273576010003E-15</v>
           </cell>
         </row>
         <row r="46">
@@ -4241,28 +4311,28 @@
             <v>4</v>
           </cell>
           <cell r="B46">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C46">
-            <v>-57.889105476168197</v>
+            <v>-56.934077681082698</v>
           </cell>
           <cell r="D46">
-            <v>-61.773698152584601</v>
+            <v>-61.4893621447724</v>
           </cell>
           <cell r="E46">
-            <v>0.58505334788021601</v>
+            <v>0.57970148521556197</v>
           </cell>
           <cell r="F46">
-            <v>0.624312789389879</v>
+            <v>0.626083288113508</v>
           </cell>
           <cell r="G46">
-            <v>0.51763512355555796</v>
+            <v>0.52150350371195697</v>
           </cell>
           <cell r="H46">
-            <v>-73.109272593811397</v>
+            <v>-72.112816345537198</v>
           </cell>
           <cell r="I46">
-            <v>0</v>
+            <v>-7.1054273576010003E-15</v>
           </cell>
         </row>
         <row r="47">
@@ -4270,25 +4340,25 @@
             <v>4</v>
           </cell>
           <cell r="B47">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C47">
-            <v>-28.742825965779399</v>
+            <v>-28.129439310993501</v>
           </cell>
           <cell r="D47">
-            <v>-53.096111174271797</v>
+            <v>-52.913490402850798</v>
           </cell>
           <cell r="E47">
-            <v>0.36302963909240998</v>
+            <v>0.35682962140597302</v>
           </cell>
           <cell r="F47">
-            <v>0.67061819529350797</v>
+            <v>0.67122207943685297</v>
           </cell>
           <cell r="G47">
-            <v>0.64690085583627899</v>
+            <v>0.649718047589673</v>
           </cell>
           <cell r="H47">
-            <v>-42.698647393663101</v>
+            <v>-42.058652444914401</v>
           </cell>
           <cell r="I47">
             <v>-1.7763568394002501E-15</v>
@@ -4299,28 +4369,28 @@
             <v>4</v>
           </cell>
           <cell r="B48">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C48">
-            <v>-8.1342724079001698</v>
+            <v>-7.6542676733694099</v>
           </cell>
           <cell r="D48">
-            <v>-46.960421851318202</v>
+            <v>-46.817512262037397</v>
           </cell>
           <cell r="E48">
-            <v>0.116266060335301</v>
+            <v>0.109640408586397</v>
           </cell>
           <cell r="F48">
-            <v>0.67122207943685297</v>
+            <v>0.67061819529350797</v>
           </cell>
           <cell r="G48">
-            <v>0.732081363845969</v>
+            <v>0.73365538023399302</v>
           </cell>
           <cell r="H48">
-            <v>-21.196108864089702</v>
+            <v>-20.6952818521581</v>
           </cell>
           <cell r="I48">
-            <v>-8.8817841970012504E-16</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="49">
@@ -4328,28 +4398,28 @@
             <v>4</v>
           </cell>
           <cell r="B49">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C49">
-            <v>9.2389123160110191</v>
+            <v>9.6765944976546301</v>
           </cell>
           <cell r="D49">
-            <v>-41.787983925637199</v>
+            <v>-41.657674834258401</v>
           </cell>
           <cell r="E49">
-            <v>-0.13842085829490899</v>
+            <v>-0.145020616888999</v>
           </cell>
           <cell r="F49">
-            <v>0.626083288113508</v>
+            <v>0.624312789389879</v>
           </cell>
           <cell r="G49">
-            <v>0.76737173673121195</v>
+            <v>0.767595311138207</v>
           </cell>
           <cell r="H49">
-            <v>-3.0692872578024701</v>
+            <v>-2.6126187221836199</v>
           </cell>
           <cell r="I49">
-            <v>2.55351295663786E-15</v>
+            <v>5.7731597280508101E-15</v>
           </cell>
         </row>
         <row r="50">
@@ -4357,28 +4427,28 @@
             <v>4</v>
           </cell>
           <cell r="B50">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C50">
-            <v>26.1887313651205</v>
+            <v>26.647307088603899</v>
           </cell>
           <cell r="D50">
-            <v>-36.741592703976004</v>
+            <v>-36.605063075031403</v>
           </cell>
           <cell r="E50">
-            <v>-0.38367462418360498</v>
+            <v>-0.38979872698131202</v>
           </cell>
           <cell r="F50">
-            <v>0.53827795535678202</v>
+            <v>0.53546149861499603</v>
           </cell>
           <cell r="G50">
-            <v>0.75036699389997796</v>
+            <v>0.74922489009958204</v>
           </cell>
           <cell r="H50">
-            <v>14.615803359992301</v>
+            <v>15.0942717850196</v>
           </cell>
           <cell r="I50">
-            <v>-9.3258734068513102E-15</v>
+            <v>2.6645352591003702E-15</v>
           </cell>
         </row>
         <row r="51">
@@ -4386,28 +4456,28 @@
             <v>4</v>
           </cell>
           <cell r="B51">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C51">
-            <v>45.253986065546201</v>
+            <v>45.809877651451004</v>
           </cell>
           <cell r="D51">
-            <v>-31.065382611100802</v>
+            <v>-30.899879580585999</v>
           </cell>
           <cell r="E51">
-            <v>-0.60278159848648505</v>
+            <v>-0.60801269800270097</v>
           </cell>
           <cell r="F51">
-            <v>0.41378986948887198</v>
+            <v>0.41011939160146599</v>
           </cell>
           <cell r="G51">
-            <v>0.68222598047454897</v>
+            <v>0.67979603095334196</v>
           </cell>
           <cell r="H51">
-            <v>34.508095782198502</v>
+            <v>35.088101565263898</v>
           </cell>
           <cell r="I51">
-            <v>0</v>
+            <v>3.5527136788005001E-15</v>
           </cell>
         </row>
         <row r="52">
@@ -4415,28 +4485,28 @@
             <v>4</v>
           </cell>
           <cell r="B52">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C52">
-            <v>70.458583609406205</v>
+            <v>71.263869996461594</v>
           </cell>
           <cell r="D52">
-            <v>-23.561334371864799</v>
+            <v>-23.321580180815001</v>
           </cell>
           <cell r="E52">
-            <v>-0.78081000299620096</v>
+            <v>-0.784791608443699</v>
           </cell>
           <cell r="F52">
-            <v>0.26110268783538598</v>
+            <v>0.25682832580463599</v>
           </cell>
           <cell r="G52">
-            <v>0.56759239391151795</v>
+            <v>0.56404019571369102</v>
           </cell>
           <cell r="H52">
-            <v>60.806051545427202</v>
+            <v>61.646270705707899</v>
           </cell>
           <cell r="I52">
-            <v>3.5527136788005001E-15</v>
+            <v>7.1054273576010003E-15</v>
           </cell>
         </row>
         <row r="53">
@@ -4444,28 +4514,28 @@
             <v>4</v>
           </cell>
           <cell r="B53">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C53">
-            <v>111.96505471437</v>
+            <v>113.48344745126001</v>
           </cell>
           <cell r="D53">
-            <v>-11.203804723946201</v>
+            <v>-10.751740677936199</v>
           </cell>
           <cell r="E53">
-            <v>-0.90562749615126603</v>
+            <v>-0.90808826769871098</v>
           </cell>
           <cell r="F53">
-            <v>9.06217894985126E-2</v>
+            <v>8.6034834033096905E-2</v>
           </cell>
           <cell r="G53">
-            <v>0.41427832369419898</v>
+            <v>0.40984595325664702</v>
           </cell>
           <cell r="H53">
-            <v>104.113045005911</v>
+            <v>105.697304582223</v>
           </cell>
           <cell r="I53">
-            <v>7.1054273576010003E-15</v>
+            <v>1.06581410364015E-14</v>
           </cell>
         </row>
         <row r="54">
@@ -4473,28 +4543,28 @@
             <v>4</v>
           </cell>
           <cell r="B54">
-            <v>1.6982776275481599</v>
+            <v>1.7051144138407801</v>
           </cell>
           <cell r="C54">
-            <v>213.192090196968</v>
+            <v>218.05658003363101</v>
           </cell>
           <cell r="D54">
-            <v>18.934052310050099</v>
+            <v>20.3823343677211</v>
           </cell>
           <cell r="E54">
-            <v>-0.968727972063822</v>
+            <v>-0.96950021219687399</v>
           </cell>
           <cell r="F54">
-            <v>-8.6034834033096905E-2</v>
+            <v>-9.06217894985126E-2</v>
           </cell>
           <cell r="G54">
-            <v>0.232731870344419</v>
+            <v>0.22772138638762399</v>
           </cell>
           <cell r="H54">
-            <v>209.731240120184</v>
+            <v>214.80674820209799</v>
           </cell>
           <cell r="I54">
-            <v>1.4210854715202001E-14</v>
+            <v>7.1054273576010003E-15</v>
           </cell>
         </row>
         <row r="55">
@@ -4502,28 +4572,28 @@
             <v>4</v>
           </cell>
           <cell r="B55">
-            <v>1.9600770153473099</v>
+            <v>1.9669138016399299</v>
           </cell>
           <cell r="C55">
-            <v>1400.3405292100499</v>
+            <v>1642.9817384145299</v>
           </cell>
           <cell r="D55">
-            <v>372.37826573126603</v>
+            <v>444.61871057584199</v>
           </cell>
           <cell r="E55">
-            <v>-0.96581123757889498</v>
+            <v>-0.96484231940867404</v>
           </cell>
           <cell r="F55">
-            <v>-0.25682832580463599</v>
+            <v>-0.26110268783538598</v>
           </cell>
           <cell r="G55">
-            <v>3.5325124638269E-2</v>
+            <v>3.0077983363669701E-2</v>
           </cell>
           <cell r="H55">
-            <v>1448.3773672493701</v>
+            <v>1701.5441863144999</v>
           </cell>
           <cell r="I55">
-            <v>5.6843418860808002E-14</v>
+            <v>1.13686837721616E-13</v>
           </cell>
         </row>
         <row r="56">
@@ -4531,28 +4601,28 @@
             <v>5</v>
           </cell>
           <cell r="B56">
-            <v>-0.91971625044333205</v>
+            <v>-0.91287946415071297</v>
           </cell>
           <cell r="C56">
-            <v>-1263.72231172433</v>
+            <v>-1097.05655496807</v>
           </cell>
           <cell r="D56">
-            <v>-829.35899830639403</v>
+            <v>-726.956520701763</v>
           </cell>
           <cell r="E56">
-            <v>0.83555586700461004</v>
+            <v>0.83296464621837596</v>
           </cell>
           <cell r="F56">
-            <v>0.54836079925060099</v>
+            <v>0.55195794450187696</v>
           </cell>
           <cell r="G56">
-            <v>3.3864833668794302E-2</v>
+            <v>3.88886313921867E-2</v>
           </cell>
           <cell r="H56">
-            <v>-1447.8373356450199</v>
+            <v>-1258.8805779454301</v>
           </cell>
           <cell r="I56">
-            <v>-391.59119878055998</v>
+            <v>-341.00379309136099</v>
           </cell>
         </row>
         <row r="57">
@@ -4560,28 +4630,28 @@
             <v>5</v>
           </cell>
           <cell r="B57">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C57">
-            <v>-165.87453468231999</v>
+            <v>-161.55395904229999</v>
           </cell>
           <cell r="D57">
-            <v>-157.19008909586401</v>
+            <v>-154.610747419555</v>
           </cell>
           <cell r="E57">
-            <v>0.70828110838620095</v>
+            <v>0.70422481434039996</v>
           </cell>
           <cell r="F57">
-            <v>0.67119869089833795</v>
+            <v>0.67395887752932204</v>
           </cell>
           <cell r="G57">
-            <v>0.21870114046243699</v>
+            <v>0.22326406398398299</v>
           </cell>
           <cell r="H57">
-            <v>-203.83192324945901</v>
+            <v>-198.95497099949199</v>
           </cell>
           <cell r="I57">
-            <v>-60.6360386819524</v>
+            <v>-59.396799360504197</v>
           </cell>
         </row>
         <row r="58">
@@ -4589,28 +4659,28 @@
             <v>5</v>
           </cell>
           <cell r="B58">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C58">
-            <v>-71.413014883655507</v>
+            <v>-70.007477383614798</v>
           </cell>
           <cell r="D58">
-            <v>-102.216038415423</v>
+            <v>-101.437815448097</v>
           </cell>
           <cell r="E58">
-            <v>0.52976706685223496</v>
+            <v>0.524522129282745</v>
           </cell>
           <cell r="F58">
-            <v>0.75827481790000595</v>
+            <v>0.76000994375322095</v>
           </cell>
           <cell r="G58">
-            <v>0.37995546504490602</v>
+            <v>0.38374655866720098</v>
           </cell>
           <cell r="H58">
-            <v>-97.611023675781098</v>
+            <v>-96.0418587535884</v>
           </cell>
           <cell r="I58">
-            <v>-34.901908336283903</v>
+            <v>-34.557106802273601</v>
           </cell>
         </row>
         <row r="59">
@@ -4618,28 +4688,28 @@
             <v>5</v>
           </cell>
           <cell r="B59">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C59">
-            <v>-31.5595479504575</v>
+            <v>-30.777562745417001</v>
           </cell>
           <cell r="D59">
-            <v>-81.244980143364003</v>
+            <v>-80.864143754409398</v>
           </cell>
           <cell r="E59">
-            <v>0.31217917932485101</v>
+            <v>0.30610303205936401</v>
           </cell>
           <cell r="F59">
-            <v>0.80365508610054404</v>
+            <v>0.80424690521652398</v>
           </cell>
           <cell r="G59">
-            <v>0.50663859168127801</v>
+            <v>0.50939949863903999</v>
           </cell>
           <cell r="H59">
-            <v>-53.430463097580997</v>
+            <v>-52.572318943128202</v>
           </cell>
           <cell r="I59">
-            <v>-26.174813823124499</v>
+            <v>-26.032948301474999</v>
           </cell>
         </row>
         <row r="60">
@@ -4647,28 +4717,28 @@
             <v>5</v>
           </cell>
           <cell r="B60">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C60">
-            <v>-6.10554363417726</v>
+            <v>-5.5275209333608002</v>
           </cell>
           <cell r="D60">
-            <v>-69.803335804985906</v>
+            <v>-69.570113232924299</v>
           </cell>
           <cell r="E60">
-            <v>7.0345700758054297E-2</v>
+            <v>6.38524231914048E-2</v>
           </cell>
           <cell r="F60">
-            <v>0.80424690521652398</v>
+            <v>0.80365508610054404</v>
           </cell>
           <cell r="G60">
-            <v>0.59011727464504904</v>
+            <v>0.59165984369172098</v>
           </cell>
           <cell r="H60">
-            <v>-25.769887793853101</v>
+            <v>-25.149347432334199</v>
           </cell>
           <cell r="I60">
-            <v>-22.472093908526801</v>
+            <v>-22.413504912084299</v>
           </cell>
         </row>
         <row r="61">
@@ -4676,28 +4746,28 @@
             <v>5</v>
           </cell>
           <cell r="B61">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C61">
-            <v>14.696631233584201</v>
+            <v>15.2215846065978</v>
           </cell>
           <cell r="D61">
-            <v>-62.311912684759903</v>
+            <v>-62.1478550088258</v>
           </cell>
           <cell r="E61">
-            <v>-0.17925281693254699</v>
+            <v>-0.18572071866484099</v>
           </cell>
           <cell r="F61">
-            <v>0.76000994375322095</v>
+            <v>0.75827481790000595</v>
           </cell>
           <cell r="G61">
-            <v>0.62470257964728404</v>
+            <v>0.62492168725155195</v>
           </cell>
           <cell r="H61">
-            <v>-3.6949230596985898</v>
+            <v>-3.1449816368543302</v>
           </cell>
           <cell r="I61">
-            <v>-21.227975111540101</v>
+            <v>-21.2205322417133</v>
           </cell>
         </row>
         <row r="62">
@@ -4705,28 +4775,28 @@
             <v>5</v>
           </cell>
           <cell r="B62">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C62">
-            <v>35.345737526306301</v>
+            <v>35.917414687761799</v>
           </cell>
           <cell r="D62">
-            <v>-56.771201659802699</v>
+            <v>-56.642965521127401</v>
           </cell>
           <cell r="E62">
-            <v>-0.41960664724739399</v>
+            <v>-0.42560839633098801</v>
           </cell>
           <cell r="F62">
-            <v>0.67395887752932204</v>
+            <v>0.67119869089833795</v>
           </cell>
           <cell r="G62">
-            <v>0.60803757530699998</v>
+            <v>0.60691828964772498</v>
           </cell>
           <cell r="H62">
-            <v>17.676706796993798</v>
+            <v>18.2612078543583</v>
           </cell>
           <cell r="I62">
-            <v>-21.809788327920099</v>
+            <v>-21.850010189287001</v>
           </cell>
         </row>
         <row r="63">
@@ -4734,28 +4804,28 @@
             <v>5</v>
           </cell>
           <cell r="B63">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C63">
-            <v>60.026113531299401</v>
+            <v>60.778644550008003</v>
           </cell>
           <cell r="D63">
-            <v>-52.230815188980401</v>
+            <v>-52.119737609565199</v>
           </cell>
           <cell r="E63">
-            <v>-0.63433607385401203</v>
+            <v>-0.63946266100721905</v>
           </cell>
           <cell r="F63">
-            <v>0.55195794450187696</v>
+            <v>0.54836079925060099</v>
           </cell>
           <cell r="G63">
-            <v>0.54125795412976596</v>
+            <v>0.53887655267491996</v>
           </cell>
           <cell r="H63">
-            <v>42.6265633351302</v>
+            <v>43.379502961248903</v>
           </cell>
           <cell r="I63">
-            <v>-24.500648372343498</v>
+            <v>-24.608921555485299</v>
           </cell>
         </row>
         <row r="64">
@@ -4763,28 +4833,28 @@
             <v>5</v>
           </cell>
           <cell r="B64">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C64">
-            <v>96.582731931870896</v>
+            <v>97.842819307011695</v>
           </cell>
           <cell r="D64">
-            <v>-48.042685220874198</v>
+            <v>-47.931495000968397</v>
           </cell>
           <cell r="E64">
-            <v>-0.80880764118631698</v>
+            <v>-0.81270969796673298</v>
           </cell>
           <cell r="F64">
-            <v>0.40232130664062898</v>
+            <v>0.39813234227337302</v>
           </cell>
           <cell r="G64">
-            <v>0.42891463694026699</v>
+            <v>0.42543340826354697</v>
           </cell>
           <cell r="H64">
-            <v>78.858382729853702</v>
+            <v>80.097808798856406</v>
           </cell>
           <cell r="I64">
-            <v>-30.917972180823998</v>
+            <v>-31.170967195534399</v>
           </cell>
         </row>
         <row r="65">
@@ -4792,28 +4862,28 @@
             <v>5</v>
           </cell>
           <cell r="B65">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C65">
-            <v>171.14167626416099</v>
+            <v>174.30195236427301</v>
           </cell>
           <cell r="D65">
-            <v>-43.238228655026901</v>
+            <v>-43.0835794946737</v>
           </cell>
           <cell r="E65">
-            <v>-0.93113140025851004</v>
+            <v>-0.933543007945002</v>
           </cell>
           <cell r="F65">
-            <v>0.23524645352958901</v>
+            <v>0.23075114104538999</v>
           </cell>
           <cell r="G65">
-            <v>0.27866363514886</v>
+            <v>0.274319819231581</v>
           </cell>
           <cell r="H65">
-            <v>151.688418504038</v>
+            <v>154.76143234275099</v>
           </cell>
           <cell r="I65">
-            <v>-47.588451237218102</v>
+            <v>-48.342007697490999</v>
           </cell>
         </row>
         <row r="66">
@@ -4821,28 +4891,28 @@
             <v>5</v>
           </cell>
           <cell r="B66">
-            <v>1.6982776275481599</v>
+            <v>1.7051144138407801</v>
           </cell>
           <cell r="C66">
-            <v>504.82545375777897</v>
+            <v>531.09639061384496</v>
           </cell>
           <cell r="D66">
-            <v>-31.581363201900501</v>
+            <v>-30.797029652966401</v>
           </cell>
           <cell r="E66">
-            <v>-0.99297118903938997</v>
+            <v>-0.99372800055349497</v>
           </cell>
           <cell r="F66">
-            <v>6.2119260304022997E-2</v>
+            <v>5.7623947819823898E-2</v>
           </cell>
           <cell r="G66">
-            <v>0.100744306226106</v>
+            <v>9.5833926944536907E-2</v>
           </cell>
           <cell r="H66">
-            <v>474.825284191609</v>
+            <v>500.22779354856198</v>
           </cell>
           <cell r="I66">
-            <v>-131.63196323080101</v>
+            <v>-138.37657743632101</v>
           </cell>
         </row>
         <row r="67">
@@ -4850,28 +4920,28 @@
             <v>6</v>
           </cell>
           <cell r="B67">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C67">
-            <v>-297.69874068112802</v>
+            <v>-284.68658576216598</v>
           </cell>
           <cell r="D67">
-            <v>-349.22283680263303</v>
+            <v>-337.15807904355302</v>
           </cell>
           <cell r="E67">
-            <v>0.644731473644369</v>
+            <v>0.64084584157050795</v>
           </cell>
           <cell r="F67">
-            <v>0.75631812780557495</v>
+            <v>0.75896218407518701</v>
           </cell>
           <cell r="G67">
-            <v>0.110924372637529</v>
+            <v>0.115295318576286</v>
           </cell>
           <cell r="H67">
-            <v>-384.97144237908702</v>
+            <v>-369.05763311202497</v>
           </cell>
           <cell r="I67">
-            <v>-207.06920462640099</v>
+            <v>-199.219030740942</v>
           </cell>
         </row>
         <row r="68">
@@ -4879,28 +4949,28 @@
             <v>6</v>
           </cell>
           <cell r="B68">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C68">
-            <v>-91.424558282267199</v>
+            <v>-89.233873129712606</v>
           </cell>
           <cell r="D68">
-            <v>-162.059211193788</v>
+            <v>-160.18800974571801</v>
           </cell>
           <cell r="E68">
-            <v>0.47372811994594799</v>
+            <v>0.46870385459060399</v>
           </cell>
           <cell r="F68">
-            <v>0.83973066844609101</v>
+            <v>0.84139279170227299</v>
           </cell>
           <cell r="G68">
-            <v>0.26539418389172897</v>
+            <v>0.26902577341839201</v>
           </cell>
           <cell r="H68">
-            <v>-133.86665363788001</v>
+            <v>-131.23310583779099</v>
           </cell>
           <cell r="I68">
-            <v>-86.546816056475393</v>
+            <v>-85.378517172829206</v>
           </cell>
         </row>
         <row r="69">
@@ -4908,28 +4978,28 @@
             <v>6</v>
           </cell>
           <cell r="B69">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C69">
-            <v>-35.133925204023697</v>
+            <v>-34.129701970071402</v>
           </cell>
           <cell r="D69">
-            <v>-116.965465695023</v>
+            <v>-116.24560680727301</v>
           </cell>
           <cell r="E69">
-            <v>0.26529488874683299</v>
+            <v>0.25947438549098101</v>
           </cell>
           <cell r="F69">
-            <v>0.88320163570078303</v>
+            <v>0.88376855499041396</v>
           </cell>
           <cell r="G69">
-            <v>0.38674732410226798</v>
+            <v>0.38939207039208201</v>
           </cell>
           <cell r="H69">
-            <v>-67.048973603839201</v>
+            <v>-65.8810920182286</v>
           </cell>
           <cell r="I69">
-            <v>-59.390253491869402</v>
+            <v>-58.986875599721898</v>
           </cell>
         </row>
         <row r="70">
@@ -4937,28 +5007,28 @@
             <v>6</v>
           </cell>
           <cell r="B70">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C70">
-            <v>-3.6913132302157501</v>
+            <v>-2.9992104554100698</v>
           </cell>
           <cell r="D70">
-            <v>-96.986889415663697</v>
+            <v>-96.6187685114988</v>
           </cell>
           <cell r="E70">
-            <v>3.36361603010428E-2</v>
+            <v>2.7416076822732598E-2</v>
           </cell>
           <cell r="F70">
-            <v>0.88376855499041396</v>
+            <v>0.88320163570078303</v>
           </cell>
           <cell r="G70">
-            <v>0.46671377730934499</v>
+            <v>0.46819144527330803</v>
           </cell>
           <cell r="H70">
-            <v>-31.212782031987299</v>
+            <v>-30.444411703030202</v>
           </cell>
           <cell r="I70">
-            <v>-49.214363775920098</v>
+            <v>-49.059037382299103</v>
           </cell>
         </row>
         <row r="71">
@@ -4966,28 +5036,28 @@
             <v>6</v>
           </cell>
           <cell r="B71">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C71">
-            <v>21.053284317366501</v>
+            <v>21.6790532934514</v>
           </cell>
           <cell r="D71">
-            <v>-86.216312491413603</v>
+            <v>-86.009880777249705</v>
           </cell>
           <cell r="E71">
-            <v>-0.20546090588199201</v>
+            <v>-0.211656681172887</v>
           </cell>
           <cell r="F71">
-            <v>0.84139279170227299</v>
+            <v>0.83973066844609101</v>
           </cell>
           <cell r="G71">
-            <v>0.49984396187771002</v>
+            <v>0.50005385088604004</v>
           </cell>
           <cell r="H71">
-            <v>-4.4236065645676996</v>
+            <v>-3.7649497132596701</v>
           </cell>
           <cell r="I71">
-            <v>-45.9523838788622</v>
+            <v>-45.933096155618699</v>
           </cell>
         </row>
         <row r="72">
@@ -4995,28 +5065,28 @@
             <v>6</v>
           </cell>
           <cell r="B72">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C72">
-            <v>46.1187076127758</v>
+            <v>46.8310285766186</v>
           </cell>
           <cell r="D72">
-            <v>-80.335494871641998</v>
+            <v>-80.233406958844597</v>
           </cell>
           <cell r="E72">
-            <v>-0.435702239868481</v>
+            <v>-0.44145147512489002</v>
           </cell>
           <cell r="F72">
-            <v>0.75896218407518701</v>
+            <v>0.75631812780557495</v>
           </cell>
           <cell r="G72">
-            <v>0.48388011047924701</v>
+            <v>0.482807916942885</v>
           </cell>
           <cell r="H72">
-            <v>21.277776904837602</v>
+            <v>21.989613064519698</v>
           </cell>
           <cell r="I72">
-            <v>-47.468414423950598</v>
+            <v>-47.573829694373202</v>
           </cell>
         </row>
         <row r="73">
@@ -5024,28 +5094,28 @@
             <v>6</v>
           </cell>
           <cell r="B73">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C73">
-            <v>78.234058894305704</v>
+            <v>79.263670957623802</v>
           </cell>
           <cell r="D73">
-            <v>-78.319070983947199</v>
+            <v>-78.324276613332302</v>
           </cell>
           <cell r="E73">
-            <v>-0.641397275239041</v>
+            <v>-0.64630816957929904</v>
           </cell>
           <cell r="F73">
-            <v>0.642094241795923</v>
+            <v>0.63864844057814396</v>
           </cell>
           <cell r="G73">
-            <v>0.419910133205249</v>
+            <v>0.41762892534181401</v>
           </cell>
           <cell r="H73">
-            <v>52.633288092807597</v>
+            <v>53.618607812009699</v>
           </cell>
           <cell r="I73">
-            <v>-54.6998507523722</v>
+            <v>-54.998636880662801</v>
           </cell>
         </row>
         <row r="74">
@@ -5053,28 +5123,28 @@
             <v>6</v>
           </cell>
           <cell r="B74">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C74">
-            <v>132.604231548456</v>
+            <v>134.65515782660199</v>
           </cell>
           <cell r="D74">
-            <v>-81.798999851148906</v>
+            <v>-82.016684175025802</v>
           </cell>
           <cell r="E74">
-            <v>-0.80852823526028605</v>
+            <v>-0.812266119350742</v>
           </cell>
           <cell r="F74">
-            <v>0.49875332199740602</v>
+            <v>0.49474060148999599</v>
           </cell>
           <cell r="G74">
-            <v>0.31229347829155502</v>
+            <v>0.30895871664706598</v>
           </cell>
           <cell r="H74">
-            <v>103.749990020228</v>
+            <v>105.653531809415</v>
           </cell>
           <cell r="I74">
-            <v>-73.549475773208997</v>
+            <v>-74.343335786101804</v>
           </cell>
         </row>
         <row r="75">
@@ -5082,28 +5152,28 @@
             <v>6</v>
           </cell>
           <cell r="B75">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C75">
-            <v>281.61032141977603</v>
+            <v>289.46717107348502</v>
           </cell>
           <cell r="D75">
-            <v>-103.03886135977901</v>
+            <v>-104.306776183349</v>
           </cell>
           <cell r="E75">
-            <v>-0.925705421203738</v>
+            <v>-0.92801556442077204</v>
           </cell>
           <cell r="F75">
-            <v>0.33870787148183401</v>
+            <v>0.33440169195604003</v>
           </cell>
           <cell r="G75">
-            <v>0.168364042925601</v>
+            <v>0.16420298599517499</v>
           </cell>
           <cell r="H75">
-            <v>240.50029920068101</v>
+            <v>247.66869818888799</v>
           </cell>
           <cell r="I75">
-            <v>-136.424744955107</v>
+            <v>-139.88187532966501</v>
           </cell>
         </row>
         <row r="76">
@@ -5111,28 +5181,28 @@
             <v>7</v>
           </cell>
           <cell r="B76">
-            <v>-0.65791686264418303</v>
+            <v>-0.65108007635156295</v>
           </cell>
           <cell r="C76">
-            <v>-455.92547842622201</v>
+            <v>-426.801771879471</v>
           </cell>
           <cell r="D76">
-            <v>-579.71703913557405</v>
+            <v>-547.84755022638797</v>
           </cell>
           <cell r="E76">
-            <v>0.61669960241112998</v>
+            <v>0.61290217641091305</v>
           </cell>
           <cell r="F76">
-            <v>0.78414408595881602</v>
+            <v>0.78672812063667696</v>
           </cell>
           <cell r="G76">
-            <v>6.92795268587027E-2</v>
+            <v>7.3551249821109596E-2</v>
           </cell>
           <cell r="H76">
-            <v>-602.39065587964205</v>
+            <v>-565.38392070247505</v>
           </cell>
           <cell r="I76">
-            <v>-382.830871230225</v>
+            <v>-360.59674975261697</v>
           </cell>
         </row>
         <row r="77">
@@ -5140,28 +5210,28 @@
             <v>7</v>
           </cell>
           <cell r="B77">
-            <v>-0.39611747484503401</v>
+            <v>-0.38928068855241399</v>
           </cell>
           <cell r="C77">
-            <v>-104.55109524320299</v>
+            <v>-101.76922457328899</v>
           </cell>
           <cell r="D77">
-            <v>-201.31323591780901</v>
+            <v>-198.49234627476201</v>
           </cell>
           <cell r="E77">
-            <v>0.44957812278697801</v>
+            <v>0.44466791113294102</v>
           </cell>
           <cell r="F77">
-            <v>0.86566311415072605</v>
+            <v>0.86728750625698203</v>
           </cell>
           <cell r="G77">
-            <v>0.220242784922007</v>
+            <v>0.22379193528635499</v>
           </cell>
           <cell r="H77">
-            <v>-157.648470825082</v>
+            <v>-154.177325636646</v>
           </cell>
           <cell r="I77">
-            <v>-120.423203126164</v>
+            <v>-118.513393218562</v>
           </cell>
         </row>
         <row r="78">
@@ -5169,28 +5239,28 @@
             <v>7</v>
           </cell>
           <cell r="B78">
-            <v>-0.13431808704588399</v>
+            <v>-0.127481300753264</v>
           </cell>
           <cell r="C78">
-            <v>-37.166006588085402</v>
+            <v>-36.031317603120698</v>
           </cell>
           <cell r="D78">
-            <v>-137.27304057306799</v>
+            <v>-136.31695192523199</v>
           </cell>
           <cell r="E78">
-            <v>0.24587644532004899</v>
+            <v>0.24018807082190499</v>
           </cell>
           <cell r="F78">
-            <v>0.90814726554994096</v>
+            <v>0.90870131544698396</v>
           </cell>
           <cell r="G78">
-            <v>0.33884113934252402</v>
+            <v>0.34142584837673201</v>
           </cell>
           <cell r="H78">
-            <v>-74.791279386142193</v>
+            <v>-73.430948763491401</v>
           </cell>
           <cell r="I78">
-            <v>-78.273676204719294</v>
+            <v>-77.681118028503604</v>
           </cell>
         </row>
         <row r="79">
@@ -5198,28 +5268,28 @@
             <v>7</v>
           </cell>
           <cell r="B79">
-            <v>0.127481300753264</v>
+            <v>0.13431808704588399</v>
           </cell>
           <cell r="C79">
-            <v>-2.3922581249978601</v>
+            <v>-1.63992214037802</v>
           </cell>
           <cell r="D79">
-            <v>-111.613883607258</v>
+            <v>-111.160859515803</v>
           </cell>
           <cell r="E79">
-            <v>1.9476502696774999E-2</v>
+            <v>1.3397618676089599E-2</v>
           </cell>
           <cell r="F79">
-            <v>0.90870131544698396</v>
+            <v>0.90814726554994096</v>
           </cell>
           <cell r="G79">
-            <v>0.41699230825954398</v>
+            <v>0.418436432314364</v>
           </cell>
           <cell r="H79">
-            <v>-34.141508111986496</v>
+            <v>-33.291181928945903</v>
           </cell>
           <cell r="I79">
-            <v>-63.603910912493099</v>
+            <v>-63.384398626669103</v>
           </cell>
         </row>
         <row r="80">
@@ -5227,28 +5297,28 @@
             <v>7</v>
           </cell>
           <cell r="B80">
-            <v>0.38928068855241399</v>
+            <v>0.39611747484503401</v>
           </cell>
           <cell r="C80">
-            <v>24.413258223991502</v>
+            <v>25.0919551776954</v>
           </cell>
           <cell r="D80">
-            <v>-98.851603193182697</v>
+            <v>-98.621440609158896</v>
           </cell>
           <cell r="E80">
-            <v>-0.21419292313666299</v>
+            <v>-0.22024805077971099</v>
           </cell>
           <cell r="F80">
-            <v>0.86728750625698203</v>
+            <v>0.86566311415072605</v>
           </cell>
           <cell r="G80">
-            <v>0.449370418662284</v>
+            <v>0.44957554306990799</v>
           </cell>
           <cell r="H80">
-            <v>-4.8087711362814902</v>
+            <v>-4.0926152922569896</v>
           </cell>
           <cell r="I80">
-            <v>-59.021111591386799</v>
+            <v>-58.994182478495603</v>
           </cell>
         </row>
         <row r="81">
@@ -5256,28 +5326,28 @@
             <v>7</v>
           </cell>
           <cell r="B81">
-            <v>0.65108007635156295</v>
+            <v>0.65791686264418303</v>
           </cell>
           <cell r="C81">
-            <v>51.860480108004097</v>
+            <v>52.651113359019703</v>
           </cell>
           <cell r="D81">
-            <v>-92.894780708995697</v>
+            <v>-92.813874860679306</v>
           </cell>
           <cell r="E81">
-            <v>-0.439207646966702</v>
+            <v>-0.44482637128981001</v>
           </cell>
           <cell r="F81">
-            <v>0.78672812063667696</v>
+            <v>0.78414408595881602</v>
           </cell>
           <cell r="G81">
-            <v>0.43376895583415598</v>
+            <v>0.43272110170518802</v>
           </cell>
           <cell r="H81">
-            <v>23.197073545656799</v>
+            <v>23.977921854556801</v>
           </cell>
           <cell r="I81">
-            <v>-61.143936810165002</v>
+            <v>-61.291999676513399</v>
           </cell>
         </row>
         <row r="82">
@@ -5285,28 +5355,28 @@
             <v>7</v>
           </cell>
           <cell r="B82">
-            <v>0.91287946415071297</v>
+            <v>0.91971625044333205</v>
           </cell>
           <cell r="C82">
-            <v>88.327424850289304</v>
+            <v>89.527183563645906</v>
           </cell>
           <cell r="D82">
-            <v>-92.7807967658634</v>
+            <v>-92.873924012773301</v>
           </cell>
           <cell r="E82">
-            <v>-0.64023328721873596</v>
+            <v>-0.64503270144466596</v>
           </cell>
           <cell r="F82">
-            <v>0.67251314758541503</v>
+            <v>0.669145568028925</v>
           </cell>
           <cell r="G82">
-            <v>0.37125113368425899</v>
+            <v>0.36902171054592797</v>
           </cell>
           <cell r="H82">
-            <v>58.180401343995598</v>
+            <v>59.3037055442407</v>
           </cell>
           <cell r="I82">
-            <v>-71.440432686440104</v>
+            <v>-71.872035893221494</v>
           </cell>
         </row>
         <row r="83">
@@ -5314,28 +5384,28 @@
             <v>7</v>
           </cell>
           <cell r="B83">
-            <v>1.1746788519498601</v>
+            <v>1.1815156382424801</v>
           </cell>
           <cell r="C83">
-            <v>154.68240699901901</v>
+            <v>157.31244153512901</v>
           </cell>
           <cell r="D83">
-            <v>-102.488805797719</v>
+            <v>-102.995460108112</v>
           </cell>
           <cell r="E83">
-            <v>-0.80357027872016795</v>
+            <v>-0.80722331070082898</v>
           </cell>
           <cell r="F83">
-            <v>0.53242614876747196</v>
+            <v>0.52850451931393905</v>
           </cell>
           <cell r="G83">
-            <v>0.26607743847652299</v>
+            <v>0.26281837783140999</v>
           </cell>
           <cell r="H83">
-            <v>119.00646959084401</v>
+            <v>121.382585977452</v>
           </cell>
           <cell r="I83">
-            <v>-99.679032456090795</v>
+            <v>-100.915095224992</v>
           </cell>
         </row>
         <row r="84">
@@ -5343,28 +5413,28 @@
             <v>7</v>
           </cell>
           <cell r="B84">
-            <v>1.4364782397490099</v>
+            <v>1.4433150260416301</v>
           </cell>
           <cell r="C84">
-            <v>374.93734941782702</v>
+            <v>388.455050964919</v>
           </cell>
           <cell r="D84">
-            <v>-153.560122979993</v>
+            <v>-156.929907614119</v>
           </cell>
           <cell r="E84">
-            <v>-0.91808747542731595</v>
+            <v>-0.92034517707014696</v>
           </cell>
           <cell r="F84">
-            <v>0.37601382164757802</v>
+            <v>0.37180539486346198</v>
           </cell>
           <cell r="G84">
-            <v>0.12541528373160701</v>
+            <v>0.121348685176824</v>
           </cell>
           <cell r="H84">
-            <v>315.53108159743499</v>
+            <v>327.52521542297001</v>
           </cell>
           <cell r="I84">
-            <v>-211.47615216095599</v>
+            <v>-218.56307373324799</v>
           </cell>
         </row>
       </sheetData>
@@ -7370,28 +7440,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.4433150260416301</v>
+        <v>-1.4364782397490099</v>
       </c>
       <c r="C2">
-        <v>-1214.79346256797</v>
+        <v>-1093.51359914403</v>
       </c>
       <c r="D2">
-        <v>266.283267304589</v>
+        <v>234.81297663777701</v>
       </c>
       <c r="E2">
-        <v>0.97598071963320299</v>
+        <v>0.976689232302273</v>
       </c>
       <c r="F2">
-        <v>-0.213935407835363</v>
+        <v>-0.20972698105124801</v>
       </c>
       <c r="G2">
-        <v>4.1149437159825497E-2</v>
+        <v>4.5746441653141803E-2</v>
       </c>
       <c r="H2">
-        <v>-1088.3042810423001</v>
+        <v>-981.04668300298397</v>
       </c>
       <c r="I2">
-        <v>644.53716639480297</v>
+        <v>579.76840749346798</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7399,28 +7469,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.1815156382424801</v>
+        <v>-1.1746788519498601</v>
       </c>
       <c r="C3">
-        <v>-224.28572892203999</v>
+        <v>-219.330323641934</v>
       </c>
       <c r="D3">
-        <v>13.189376124105101</v>
+        <v>12.025227518755401</v>
       </c>
       <c r="E3">
-        <v>0.97330468241830803</v>
+        <v>0.97241572214609295</v>
       </c>
       <c r="F3">
-        <v>-5.7236283384886601E-2</v>
+        <v>-5.33146539313544E-2</v>
       </c>
       <c r="G3">
-        <v>0.22226561373023901</v>
+        <v>0.22707974590277799</v>
       </c>
       <c r="H3">
-        <v>-211.19732148141301</v>
+        <v>-206.78012763161399</v>
       </c>
       <c r="I3">
-        <v>119.32723726633</v>
+        <v>116.797477997399</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7428,28 +7498,28 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-0.91971625044333205</v>
+        <v>-0.91287946415071297</v>
       </c>
       <c r="C4">
-        <v>-114.94606253413301</v>
+        <v>-113.32561204749599</v>
       </c>
       <c r="D4">
-        <v>-10.5324212697031</v>
+        <v>-10.8320743421269</v>
       </c>
       <c r="E4">
-        <v>0.91024173129646602</v>
+        <v>0.90781587925644103</v>
       </c>
       <c r="F4">
-        <v>8.3404765330099301E-2</v>
+        <v>8.6772344886588998E-2</v>
       </c>
       <c r="G4">
-        <v>0.40559047785499402</v>
+        <v>0.410293662554928</v>
       </c>
       <c r="H4">
-        <v>-113.1724864664</v>
+        <v>-111.704912652207</v>
       </c>
       <c r="I4">
-        <v>65.3919238094566</v>
+        <v>64.642338028275603</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7457,28 +7527,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C5">
-        <v>-70.024372263943405</v>
+        <v>-69.177536938400806</v>
       </c>
       <c r="D5">
-        <v>-17.5619387278856</v>
+        <v>-17.660291563501399</v>
       </c>
       <c r="E5">
-        <v>0.79108950217017404</v>
+        <v>0.787292076169958</v>
       </c>
       <c r="F5">
-        <v>0.19840328325998999</v>
+        <v>0.20098731793785099</v>
       </c>
       <c r="G5">
-        <v>0.57863074300265105</v>
+        <v>0.58290246596505801</v>
       </c>
       <c r="H5">
-        <v>-72.1243040196604</v>
+        <v>-71.340741246613504</v>
       </c>
       <c r="I5">
-        <v>45.836385201560901</v>
+        <v>45.500479367202999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7486,28 +7556,28 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C6">
-        <v>-43.803235031401499</v>
+        <v>-43.248149806996999</v>
       </c>
       <c r="D6">
-        <v>-19.6508512552121</v>
+        <v>-19.669203423190201</v>
       </c>
       <c r="E6">
-        <v>0.62396802254602302</v>
+        <v>0.61905781089198497</v>
       </c>
       <c r="F6">
-        <v>0.2799223114519</v>
+        <v>0.28154670355815498</v>
       </c>
       <c r="G6">
-        <v>0.72959400106595496</v>
+        <v>0.73314315143030395</v>
       </c>
       <c r="H6">
-        <v>-47.589396571906597</v>
+        <v>-47.062626192696101</v>
       </c>
       <c r="I6">
-        <v>36.352192571464499</v>
+        <v>36.176211390629398</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7515,28 +7585,28 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C7">
-        <v>-25.377881563146701</v>
+        <v>-24.9583318468082</v>
       </c>
       <c r="D7">
-        <v>-19.468589681833301</v>
+        <v>-19.4427977909404</v>
       </c>
       <c r="E7">
-        <v>0.42026634507909399</v>
+        <v>0.41457797058094997</v>
       </c>
       <c r="F7">
-        <v>0.32240646285111502</v>
+        <v>0.32296051274815801</v>
       </c>
       <c r="G7">
-        <v>0.84819235548647298</v>
+        <v>0.85077706452068103</v>
       </c>
       <c r="H7">
-        <v>-29.8780838522773</v>
+        <v>-29.4686176017313</v>
       </c>
       <c r="I7">
-        <v>31.2692533175723</v>
+        <v>31.174255550338899</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7544,28 +7614,28 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C8">
-        <v>-10.7190325177401</v>
+        <v>-10.3667647536146</v>
       </c>
       <c r="D8">
-        <v>-17.856751836525302</v>
+        <v>-17.798371176500801</v>
       </c>
       <c r="E8">
-        <v>0.19386640245581899</v>
+        <v>0.187787518435134</v>
       </c>
       <c r="F8">
-        <v>0.32296051274815801</v>
+        <v>0.32240646285111502</v>
       </c>
       <c r="G8">
-        <v>0.92634352440349199</v>
+        <v>0.92778764845831296</v>
       </c>
       <c r="H8">
-        <v>-15.3687545710936</v>
+        <v>-15.014473858349101</v>
       </c>
       <c r="I8">
-        <v>28.6312160953612</v>
+        <v>28.586650910697699</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7573,28 +7643,28 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C9">
-        <v>2.12641800479869</v>
+        <v>2.4493802367558102</v>
       </c>
       <c r="D9">
-        <v>-15.0412187023566</v>
+        <v>-14.9512390324742</v>
       </c>
       <c r="E9">
-        <v>-3.9803023377619103E-2</v>
+        <v>-4.5858151020666801E-2</v>
       </c>
       <c r="F9">
-        <v>0.28154670355815498</v>
+        <v>0.2799223114519</v>
       </c>
       <c r="G9">
-        <v>0.95872163480623296</v>
+        <v>0.95892675921385695</v>
       </c>
       <c r="H9">
-        <v>-2.2539592518934399</v>
+        <v>-1.91874898151873</v>
       </c>
       <c r="I9">
-        <v>27.664277787050601</v>
+        <v>27.6583601102949</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7602,28 +7672,28 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C10">
-        <v>14.381532264202599</v>
+        <v>14.703005696166001</v>
       </c>
       <c r="D10">
-        <v>-10.915075096353499</v>
+        <v>-10.786727793768801</v>
       </c>
       <c r="E10">
-        <v>-0.26481774720765699</v>
+        <v>-0.270436471530765</v>
       </c>
       <c r="F10">
-        <v>0.20098731793785099</v>
+        <v>0.19840328325998999</v>
       </c>
       <c r="G10">
-        <v>0.94312017197810405</v>
+        <v>0.94207231784913603</v>
       </c>
       <c r="H10">
-        <v>10.669022537396501</v>
+        <v>11.0137540026585</v>
       </c>
       <c r="I10">
-        <v>28.1219110923127</v>
+        <v>28.153190708637499</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7631,28 +7701,28 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C11">
-        <v>27.094753372566199</v>
+        <v>27.4433791882376</v>
       </c>
       <c r="D11">
-        <v>-5.0469220934574697</v>
+        <v>-4.8633668524454201</v>
       </c>
       <c r="E11">
-        <v>-0.465843387459692</v>
+        <v>-0.470642801685621</v>
       </c>
       <c r="F11">
-        <v>8.6772344886588998E-2</v>
+        <v>8.3404765330099301E-2</v>
       </c>
       <c r="G11">
-        <v>0.88060234982820795</v>
+        <v>0.87837292668987599</v>
       </c>
       <c r="H11">
-        <v>24.528142539453</v>
+        <v>24.914650937749499</v>
       </c>
       <c r="I11">
-        <v>30.118408871960199</v>
+        <v>30.194853256331101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7660,28 +7730,28 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C12">
-        <v>41.558362998941703</v>
+        <v>41.976073425667799</v>
       </c>
       <c r="D12">
-        <v>3.5215175414411299</v>
+        <v>3.7965037756158302</v>
       </c>
       <c r="E12">
-        <v>-0.629180378961123</v>
+        <v>-0.63283341094178402</v>
       </c>
       <c r="F12">
-        <v>-5.33146539313544E-2</v>
+        <v>-5.7236283384886601E-2</v>
       </c>
       <c r="G12">
-        <v>0.77542865462047195</v>
+        <v>0.772169593975359</v>
       </c>
       <c r="H12">
-        <v>40.835396528342599</v>
+        <v>41.3142068691633</v>
       </c>
       <c r="I12">
-        <v>34.203458264920698</v>
+        <v>34.347819226071799</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7689,28 +7759,28 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C13">
-        <v>60.007768121187397</v>
+        <v>60.5780284437906</v>
       </c>
       <c r="D13">
-        <v>16.922534723030498</v>
+        <v>17.3734077835066</v>
       </c>
       <c r="E13">
-        <v>-0.74369757566827099</v>
+        <v>-0.74595527731110201</v>
       </c>
       <c r="F13">
-        <v>-0.20972698105124801</v>
+        <v>-0.213935407835363</v>
       </c>
       <c r="G13">
-        <v>0.634766499875556</v>
+        <v>0.63069990132077303</v>
       </c>
       <c r="H13">
-        <v>62.341695934554402</v>
+        <v>63.016902603920599</v>
       </c>
       <c r="I13">
-        <v>41.782831373323098</v>
+        <v>42.052236840680401</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7718,28 +7788,28 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1.6982776275481599</v>
+        <v>1.7051144138407801</v>
       </c>
       <c r="C14">
-        <v>87.688932357338501</v>
+        <v>88.636712126421401</v>
       </c>
       <c r="D14">
-        <v>40.673143094869801</v>
+        <v>41.541389245934802</v>
       </c>
       <c r="E14">
-        <v>-0.80159081987415903</v>
+        <v>-0.80229933254322905</v>
       </c>
       <c r="F14">
-        <v>-0.37180539486346198</v>
+        <v>-0.37601382164757802</v>
       </c>
       <c r="G14">
-        <v>0.46820177898412302</v>
+        <v>0.463604774490807</v>
       </c>
       <c r="H14">
-        <v>95.649163744501905</v>
+        <v>96.805290437953204</v>
       </c>
       <c r="I14">
-        <v>56.647246585182799</v>
+        <v>57.208948408405199</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7747,28 +7817,28 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1.9600770153473099</v>
+        <v>1.9669138016399299</v>
       </c>
       <c r="C15">
-        <v>142.53258165012701</v>
+        <v>144.802168647363</v>
       </c>
       <c r="D15">
-        <v>94.289297415220204</v>
+        <v>96.608980340364496</v>
       </c>
       <c r="E15">
-        <v>-0.79891478265926397</v>
+        <v>-0.798025822387049</v>
       </c>
       <c r="F15">
-        <v>-0.52850451931393905</v>
+        <v>-0.53242614876747096</v>
       </c>
       <c r="G15">
-        <v>0.28708560241370901</v>
+        <v>0.28227147024117</v>
       </c>
       <c r="H15">
-        <v>163.51186504157201</v>
+        <v>166.349007217104</v>
       </c>
       <c r="I15">
-        <v>92.384784896020193</v>
+        <v>93.960404865126705</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7776,28 +7846,28 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>2.2218764031464602</v>
+        <v>2.2287131894390799</v>
       </c>
       <c r="C16">
-        <v>363.23060079457798</v>
+        <v>379.22223943582401</v>
       </c>
       <c r="D16">
-        <v>330.30310760572701</v>
+        <v>347.72689951908302</v>
       </c>
       <c r="E16">
-        <v>-0.73585183153742095</v>
+        <v>-0.73342597949739596</v>
       </c>
       <c r="F16">
-        <v>-0.669145568028925</v>
+        <v>-0.67251314758541503</v>
       </c>
       <c r="G16">
-        <v>0.103760738288954</v>
+        <v>9.9057553589020797E-2</v>
       </c>
       <c r="H16">
-        <v>442.38007191234402</v>
+        <v>462.67867595038399</v>
       </c>
       <c r="I16">
-        <v>255.610571619827</v>
+        <v>267.74678623473</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -7805,28 +7875,28 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>-1.4433150260416301</v>
+        <v>-1.4364782397490099</v>
       </c>
       <c r="C17">
-        <v>-24375.067488598401</v>
+        <v>-7453.3072679718098</v>
       </c>
       <c r="D17">
-        <v>4278.00144491841</v>
+        <v>1274.5855048351</v>
       </c>
       <c r="E17">
-        <v>0.98494340149180704</v>
+        <v>0.985668371392871</v>
       </c>
       <c r="F17">
-        <v>-0.17286472321423199</v>
+        <v>-0.16855854368843701</v>
       </c>
       <c r="G17">
-        <v>2.06961972706148E-3</v>
+        <v>6.77340279008673E-3</v>
       </c>
       <c r="H17">
-        <v>-22140.939097574701</v>
+        <v>-6779.7307346581701</v>
       </c>
       <c r="I17">
-        <v>11098.184519311701</v>
+        <v>3391.0609375471399</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -7834,28 +7904,28 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>-1.1815156382424801</v>
+        <v>-1.1746788519498601</v>
       </c>
       <c r="C18">
-        <v>-268.45690795156099</v>
+        <v>-261.338540892867</v>
       </c>
       <c r="D18">
-        <v>3.42356280621985</v>
+        <v>2.26720608515472</v>
       </c>
       <c r="E18">
-        <v>0.98220520566325198</v>
+        <v>0.98129559674765798</v>
       </c>
       <c r="F18">
-        <v>-1.2525813680275799E-2</v>
+        <v>-8.5130931728659692E-3</v>
       </c>
       <c r="G18">
-        <v>0.18739273721159699</v>
+        <v>0.192318691364846</v>
       </c>
       <c r="H18">
-        <v>-256.31869651881499</v>
+        <v>-249.82624433719101</v>
       </c>
       <c r="I18">
-        <v>122.571567914075</v>
+        <v>119.43208147231699</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -7863,28 +7933,28 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>-0.91971625044333205</v>
+        <v>-0.91287946415071297</v>
       </c>
       <c r="C19">
-        <v>-125.346400808124</v>
+        <v>-123.423343156554</v>
       </c>
       <c r="D19">
-        <v>-17.945591062270601</v>
+        <v>-18.182897402031799</v>
       </c>
       <c r="E19">
-        <v>0.91767743723870598</v>
+        <v>0.91519523785085199</v>
       </c>
       <c r="F19">
-        <v>0.131382025407872</v>
+        <v>0.13482782662565099</v>
       </c>
       <c r="G19">
-        <v>0.374975845332369</v>
+        <v>0.37978827494082101</v>
       </c>
       <c r="H19">
-        <v>-125.25574978564801</v>
+        <v>-123.48035947163299</v>
       </c>
       <c r="I19">
-        <v>61.254669871806598</v>
+        <v>60.478490599308003</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -7892,28 +7962,28 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C20">
-        <v>-73.831025213997194</v>
+        <v>-72.893352939740495</v>
       </c>
       <c r="D20">
-        <v>-23.107217912586499</v>
+        <v>-23.1690857305706</v>
       </c>
       <c r="E20">
-        <v>0.79575755699912298</v>
+        <v>0.79187192492526204</v>
       </c>
       <c r="F20">
-        <v>0.24905171263530201</v>
+        <v>0.25169576890491502</v>
       </c>
       <c r="G20">
-        <v>0.55203546526668801</v>
+        <v>0.55640641120544398</v>
       </c>
       <c r="H20">
-        <v>-77.355022305741798</v>
+        <v>-76.473988303758006</v>
       </c>
       <c r="I20">
-        <v>41.607873154742997</v>
+        <v>41.2810153750276</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -7921,28 +7991,28 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C21">
-        <v>-45.291727332381498</v>
+        <v>-44.697735833084998</v>
       </c>
       <c r="D21">
-        <v>-24.1020872329924</v>
+        <v>-24.0987107426301</v>
       </c>
       <c r="E21">
-        <v>0.62475420330070197</v>
+        <v>0.61972993794535802</v>
       </c>
       <c r="F21">
-        <v>0.33246425327581902</v>
+        <v>0.334126376532001</v>
       </c>
       <c r="G21">
-        <v>0.70650527652088702</v>
+        <v>0.71013686604755</v>
       </c>
       <c r="H21">
-        <v>-50.286151389403997</v>
+        <v>-49.715892082337703</v>
       </c>
       <c r="I21">
-        <v>32.510757356044799</v>
+        <v>32.3444996505756</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -7950,28 +8020,28 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C22">
-        <v>-25.757121552430601</v>
+        <v>-25.316139128950901</v>
       </c>
       <c r="D22">
-        <v>-23.2585188350333</v>
+        <v>-23.219414537663699</v>
       </c>
       <c r="E22">
-        <v>0.41632097210158697</v>
+        <v>0.41050046884573499</v>
       </c>
       <c r="F22">
-        <v>0.37593522053051098</v>
+        <v>0.37650213982014202</v>
       </c>
       <c r="G22">
-        <v>0.82785841673142602</v>
+        <v>0.83050316302124005</v>
       </c>
       <c r="H22">
-        <v>-31.323002340750399</v>
+        <v>-30.889195806727098</v>
       </c>
       <c r="I22">
-        <v>27.745108525226801</v>
+        <v>27.656753927556601</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -7979,28 +8049,28 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C23">
-        <v>-10.4184026723517</v>
+        <v>-10.051113470955899</v>
       </c>
       <c r="D23">
-        <v>-21.241759127327501</v>
+        <v>-21.175307200510701</v>
       </c>
       <c r="E23">
-        <v>0.184662243655797</v>
+        <v>0.17844216017748701</v>
       </c>
       <c r="F23">
-        <v>0.37650213982014202</v>
+        <v>0.37593522053051098</v>
       </c>
       <c r="G23">
-        <v>0.90782486993850298</v>
+        <v>0.90930253790246696</v>
       </c>
       <c r="H23">
-        <v>-16.046526025960102</v>
+        <v>-15.6755452905886</v>
       </c>
       <c r="I23">
-        <v>25.301159261358201</v>
+        <v>25.260043449036999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -8008,28 +8078,28 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C24">
-        <v>2.9630094660608699</v>
+        <v>3.2995234196323899</v>
       </c>
       <c r="D24">
-        <v>-18.1872479887219</v>
+        <v>-18.092739134201398</v>
       </c>
       <c r="E24">
-        <v>-5.4434822527237602E-2</v>
+        <v>-6.0630597818132903E-2</v>
       </c>
       <c r="F24">
-        <v>0.334126376532001</v>
+        <v>0.33246425327581902</v>
       </c>
       <c r="G24">
-        <v>0.940955054506868</v>
+        <v>0.94116494351519797</v>
       </c>
       <c r="H24">
-        <v>-2.3498604108998098</v>
+        <v>-2.0003694522196001</v>
       </c>
       <c r="I24">
-        <v>24.4103281083637</v>
+        <v>24.404884365909201</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -8037,28 +8107,28 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C25">
-        <v>15.7629899351946</v>
+        <v>16.0999967434065</v>
       </c>
       <c r="D25">
-        <v>-13.9368112895958</v>
+        <v>-13.8064090675025</v>
       </c>
       <c r="E25">
-        <v>-0.28467615651372702</v>
+        <v>-0.29042539177013599</v>
       </c>
       <c r="F25">
-        <v>0.25169576890491502</v>
+        <v>0.24905171263530201</v>
       </c>
       <c r="G25">
-        <v>0.92499120310840499</v>
+        <v>0.92391900957204298</v>
       </c>
       <c r="H25">
-        <v>11.1308010334223</v>
+        <v>11.491006428126701</v>
       </c>
       <c r="I25">
-        <v>24.831610872134998</v>
+        <v>24.860427567536501</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -8066,28 +8136,28 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C26">
-        <v>29.169984464746399</v>
+        <v>29.540376458208101</v>
       </c>
       <c r="D26">
-        <v>-8.0203031360248005</v>
+        <v>-7.8360889649274501</v>
       </c>
       <c r="E26">
-        <v>-0.49037119188428702</v>
+        <v>-0.495282086224545</v>
       </c>
       <c r="F26">
-        <v>0.13482782662565099</v>
+        <v>0.131382025407872</v>
       </c>
       <c r="G26">
-        <v>0.86102122583440699</v>
+        <v>0.85874001797097199</v>
       </c>
       <c r="H26">
-        <v>25.6686482875762</v>
+        <v>26.076205941541101</v>
       </c>
       <c r="I26">
-        <v>26.676487090636801</v>
+        <v>26.747352091506102</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -8095,28 +8165,28 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C27">
-        <v>44.698611736855902</v>
+        <v>45.152579164073899</v>
       </c>
       <c r="D27">
-        <v>0.57874099014095304</v>
+        <v>0.85532146120161501</v>
       </c>
       <c r="E27">
-        <v>-0.65750215190553196</v>
+        <v>-0.66124003599598702</v>
       </c>
       <c r="F27">
-        <v>-8.5130931728659692E-3</v>
+        <v>-1.2525813680275799E-2</v>
       </c>
       <c r="G27">
-        <v>0.753404570920713</v>
+        <v>0.75006980927622402</v>
       </c>
       <c r="H27">
-        <v>43.005373881041898</v>
+        <v>43.519388720051602</v>
       </c>
       <c r="I27">
-        <v>30.4869687579226</v>
+        <v>30.622511840464199</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8124,28 +8194,28 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C28">
-        <v>65.101513776451696</v>
+        <v>65.744506749614004</v>
       </c>
       <c r="D28">
-        <v>14.1651078297</v>
+        <v>14.626846616424899</v>
       </c>
       <c r="E28">
-        <v>-0.77467933784898402</v>
+        <v>-0.77698948106601795</v>
       </c>
       <c r="F28">
-        <v>-0.16855854368843701</v>
+        <v>-0.17286472321423199</v>
       </c>
       <c r="G28">
-        <v>0.60947513555475896</v>
+        <v>0.60531407862433295</v>
       </c>
       <c r="H28">
-        <v>66.436841039277198</v>
+        <v>67.184856946623896</v>
       </c>
       <c r="I28">
-        <v>37.686560576140501</v>
+        <v>37.945625959892503</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8153,28 +8223,28 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>1.6982776275481599</v>
+        <v>1.7051144138407801</v>
       </c>
       <c r="C29">
-        <v>97.284254105749</v>
+        <v>98.423311939621001</v>
       </c>
       <c r="D29">
-        <v>39.011084751566599</v>
+        <v>39.941362867704598</v>
       </c>
       <c r="E29">
-        <v>-0.83391731813705305</v>
+        <v>-0.83464228803811702</v>
       </c>
       <c r="F29">
-        <v>-0.33440169195603903</v>
+        <v>-0.33870787148183401</v>
       </c>
       <c r="G29">
-        <v>0.439041472902096</v>
+        <v>0.43433768983907101</v>
       </c>
       <c r="H29">
-        <v>104.37128872840201</v>
+        <v>105.728441598483</v>
       </c>
       <c r="I29">
-        <v>52.316291360606499</v>
+        <v>52.882865459468299</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8182,28 +8252,28 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>1.9600770153473099</v>
+        <v>1.9669138016399299</v>
       </c>
       <c r="C30">
-        <v>167.79068437619901</v>
+        <v>170.92558961416401</v>
       </c>
       <c r="D30">
-        <v>99.873615547682604</v>
+        <v>102.677147913158</v>
       </c>
       <c r="E30">
-        <v>-0.831179122308497</v>
+        <v>-0.830269513392903</v>
       </c>
       <c r="F30">
-        <v>-0.49474060148999599</v>
+        <v>-0.49875332199740602</v>
       </c>
       <c r="G30">
-        <v>0.25371835541755999</v>
+        <v>0.24879240126431101</v>
       </c>
       <c r="H30">
-        <v>189.31331184186399</v>
+        <v>193.11786105749999</v>
       </c>
       <c r="I30">
-        <v>90.529601525811302</v>
+        <v>92.322038370191706</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -8211,28 +8281,28 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>2.2218764031464602</v>
+        <v>2.2287131894390799</v>
       </c>
       <c r="C31">
-        <v>593.73142004133899</v>
+        <v>638.25247681357598</v>
       </c>
       <c r="D31">
-        <v>494.59985117178297</v>
+        <v>536.29257051630498</v>
       </c>
       <c r="E31">
-        <v>-0.766651353883952</v>
+        <v>-0.76416915449609701</v>
       </c>
       <c r="F31">
-        <v>-0.63864844057814396</v>
+        <v>-0.642094241795923</v>
       </c>
       <c r="G31">
-        <v>6.6135247296789199E-2</v>
+        <v>6.1322817688336403E-2</v>
       </c>
       <c r="H31">
-        <v>710.17925506257995</v>
+        <v>764.74621487792399</v>
       </c>
       <c r="I31">
-        <v>347.30378360361902</v>
+        <v>374.55913608654299</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -8240,28 +8310,28 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>-1.1815156382424801</v>
+        <v>-1.1746788519498601</v>
       </c>
       <c r="C32">
-        <v>-546.94496310066097</v>
+        <v>-517.70755654284403</v>
       </c>
       <c r="D32">
-        <v>-58.147407622924597</v>
+        <v>-57.284341524688301</v>
       </c>
       <c r="E32">
-        <v>0.99011272811862405</v>
+        <v>0.98916316800634496</v>
       </c>
       <c r="F32">
-        <v>0.10526194092396</v>
+        <v>0.109450905291216</v>
       </c>
       <c r="G32">
-        <v>9.2718441587499395E-2</v>
+        <v>9.7860750000106994E-2</v>
       </c>
       <c r="H32">
-        <v>-540.79749595093097</v>
+        <v>-512.52938409296598</v>
       </c>
       <c r="I32">
-        <v>143.02624791587701</v>
+        <v>135.510619046481</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8269,28 +8339,28 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>-0.91971625044333205</v>
+        <v>-0.91287946415071297</v>
       </c>
       <c r="C33">
-        <v>-163.79583453379999</v>
+        <v>-160.54068652963699</v>
       </c>
       <c r="D33">
-        <v>-45.3516400894746</v>
+        <v>-45.203128050134701</v>
       </c>
       <c r="E33">
-        <v>0.92275081688413196</v>
+        <v>0.92015959609789899</v>
       </c>
       <c r="F33">
-        <v>0.25549039790118799</v>
+        <v>0.25908754315246302</v>
       </c>
       <c r="G33">
-        <v>0.28854044174076798</v>
+        <v>0.29356423946416099</v>
       </c>
       <c r="H33">
-        <v>-169.92685758462699</v>
+        <v>-166.76466742632601</v>
       </c>
       <c r="I33">
-        <v>45.959487456463997</v>
+        <v>45.172977597928401</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -8298,28 +8368,28 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C34">
-        <v>-86.068710802616906</v>
+        <v>-84.812314984665804</v>
       </c>
       <c r="D34">
-        <v>-40.9342654669287</v>
+        <v>-40.839257926107699</v>
       </c>
       <c r="E34">
-        <v>0.79547605826572299</v>
+        <v>0.791419764219922</v>
       </c>
       <c r="F34">
-        <v>0.378328289548925</v>
+        <v>0.38108847617990899</v>
       </c>
       <c r="G34">
-        <v>0.47337674853441097</v>
+        <v>0.477939672055958</v>
       </c>
       <c r="H34">
-        <v>-94.170814716448106</v>
+        <v>-92.939544407524195</v>
       </c>
       <c r="I34">
-        <v>28.013988549130101</v>
+        <v>27.746537038496299</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -8327,28 +8397,28 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C35">
-        <v>-49.792301670281098</v>
+        <v>-49.0758415368839</v>
       </c>
       <c r="D35">
-        <v>-37.560751681806799</v>
+        <v>-37.476910388078998</v>
       </c>
       <c r="E35">
-        <v>0.61696201673175699</v>
+        <v>0.61171707916226703</v>
       </c>
       <c r="F35">
-        <v>0.465404416550593</v>
+        <v>0.46713954240380801</v>
       </c>
       <c r="G35">
-        <v>0.63463107311688005</v>
+        <v>0.63842216673917496</v>
       </c>
       <c r="H35">
-        <v>-58.440003121955897</v>
+        <v>-57.729406503750397</v>
       </c>
       <c r="I35">
-        <v>20.895873799146798</v>
+        <v>20.7717894267372</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -8356,28 +8426,28 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C36">
-        <v>-26.868356712562299</v>
+        <v>-26.363967909057301</v>
       </c>
       <c r="D36">
-        <v>-34.363630765337</v>
+        <v>-34.279132760700001</v>
       </c>
       <c r="E36">
-        <v>0.39937412920437299</v>
+        <v>0.39329798193888599</v>
       </c>
       <c r="F36">
-        <v>0.51078468475113104</v>
+        <v>0.51137650386711098</v>
       </c>
       <c r="G36">
-        <v>0.76131419975325199</v>
+        <v>0.76407510671101497</v>
       </c>
       <c r="H36">
-        <v>-35.556849702015903</v>
+        <v>-35.0493199905411</v>
       </c>
       <c r="I36">
-        <v>17.418788218012299</v>
+        <v>17.3558472150082</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -8385,28 +8455,28 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C37">
-        <v>-9.55141016963527</v>
+        <v>-9.1410429716783206</v>
       </c>
       <c r="D37">
-        <v>-31.0038502429787</v>
+        <v>-30.911525686665101</v>
       </c>
       <c r="E37">
-        <v>0.157540650637576</v>
+        <v>0.151047373070927</v>
       </c>
       <c r="F37">
-        <v>0.51137650386711098</v>
+        <v>0.51078468475113104</v>
       </c>
       <c r="G37">
-        <v>0.84479288271702302</v>
+        <v>0.84633545176369596</v>
       </c>
       <c r="H37">
-        <v>-18.0011648581931</v>
+        <v>-17.581514445312699</v>
       </c>
       <c r="I37">
-        <v>15.697540881519799</v>
+        <v>15.6689298377283</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -8414,28 +8484,28 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C38">
-        <v>5.3617964921122496</v>
+        <v>5.7370819581130004</v>
       </c>
       <c r="D38">
-        <v>-27.207964294294801</v>
+        <v>-27.100151709918698</v>
       </c>
       <c r="E38">
-        <v>-9.2057867053025502E-2</v>
+        <v>-9.8525768785318796E-2</v>
       </c>
       <c r="F38">
-        <v>0.46713954240380801</v>
+        <v>0.465404416550593</v>
       </c>
       <c r="G38">
-        <v>0.87937818771925802</v>
+        <v>0.87959729532352604</v>
       </c>
       <c r="H38">
-        <v>-2.6248410515827398</v>
+        <v>-2.2343943544701999</v>
       </c>
       <c r="I38">
-        <v>15.0801680074205</v>
+        <v>15.0764115389757</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -8443,28 +8513,28 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C39">
-        <v>19.734901829896099</v>
+        <v>20.117319046880699</v>
       </c>
       <c r="D39">
-        <v>-22.624786448450902</v>
+        <v>-22.490096020484</v>
       </c>
       <c r="E39">
-        <v>-0.33241169736787102</v>
+        <v>-0.33841344645146498</v>
       </c>
       <c r="F39">
-        <v>0.38108847617990899</v>
+        <v>0.378328289548925</v>
       </c>
       <c r="G39">
-        <v>0.86271318337897496</v>
+        <v>0.86159389771969996</v>
       </c>
       <c r="H39">
-        <v>12.458488113233599</v>
+        <v>12.8634395707784</v>
       </c>
       <c r="I39">
-        <v>15.3714711544428</v>
+        <v>15.3914400368486</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -8472,28 +8542,28 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C40">
-        <v>35.2085100736303</v>
+        <v>35.645054337887302</v>
       </c>
       <c r="D40">
-        <v>-16.672273337401201</v>
+        <v>-16.4901350060832</v>
       </c>
       <c r="E40">
-        <v>-0.547141123974489</v>
+        <v>-0.55226771112769701</v>
       </c>
       <c r="F40">
-        <v>0.25908754315246302</v>
+        <v>0.25549039790118799</v>
       </c>
       <c r="G40">
-        <v>0.79593356220174005</v>
+        <v>0.79355216074689505</v>
       </c>
       <c r="H40">
-        <v>28.987301903104701</v>
+        <v>29.457669160030399</v>
       </c>
       <c r="I40">
-        <v>16.661152943700301</v>
+        <v>16.7111520437244</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -8501,28 +8571,28 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C41">
-        <v>54.067141989429601</v>
+        <v>54.637751651233003</v>
       </c>
       <c r="D41">
-        <v>-8.2006562641453105</v>
+        <v>-7.9271659214276804</v>
       </c>
       <c r="E41">
-        <v>-0.72161269130679395</v>
+        <v>-0.72551474808720995</v>
       </c>
       <c r="F41">
-        <v>0.109450905291216</v>
+        <v>0.10526194092396</v>
       </c>
       <c r="G41">
-        <v>0.68359024501224197</v>
+        <v>0.68010901633552201</v>
       </c>
       <c r="H41">
-        <v>49.479223621258903</v>
+        <v>50.104149442607003</v>
       </c>
       <c r="I41">
-        <v>19.3992979122017</v>
+        <v>19.498595805007302</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -8530,28 +8600,28 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C42">
-        <v>81.045948936015094</v>
+        <v>81.944949361183504</v>
       </c>
       <c r="D42">
-        <v>5.5338142230967797</v>
+        <v>6.0144991076159702</v>
       </c>
       <c r="E42">
-        <v>-0.84393645037898701</v>
+        <v>-0.84634805806547997</v>
       </c>
       <c r="F42">
-        <v>-5.7623947819824002E-2</v>
+        <v>-6.21192603040229E-2</v>
       </c>
       <c r="G42">
-        <v>0.53333924322083404</v>
+        <v>0.52899542730355598</v>
       </c>
       <c r="H42">
-        <v>79.255458224015399</v>
+        <v>80.254244088054193</v>
       </c>
       <c r="I42">
-        <v>24.8644197505199</v>
+        <v>25.0685925216093</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -8559,28 +8629,28 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>1.6982776275481599</v>
+        <v>1.7051144138407801</v>
       </c>
       <c r="C43">
-        <v>130.528177167943</v>
+        <v>132.46736963893301</v>
       </c>
       <c r="D43">
-        <v>33.252722380987201</v>
+        <v>34.375447086881202</v>
       </c>
       <c r="E43">
-        <v>-0.90577623915986805</v>
+        <v>-0.90653305067397205</v>
       </c>
       <c r="F43">
-        <v>-0.23075114104538999</v>
+        <v>-0.23524645352958901</v>
       </c>
       <c r="G43">
-        <v>0.35541991429808101</v>
+        <v>0.350509535016511</v>
       </c>
       <c r="H43">
-        <v>134.58993688907</v>
+        <v>136.76887226563301</v>
       </c>
       <c r="I43">
-        <v>37.3112768288658</v>
+        <v>37.833980214668799</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -8588,28 +8658,28 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.9600770153473099</v>
+        <v>1.9669138016399299</v>
       </c>
       <c r="C44">
-        <v>285.54406733009199</v>
+        <v>294.59755134454002</v>
       </c>
       <c r="D44">
-        <v>125.907730568896</v>
+        <v>131.404709620711</v>
       </c>
       <c r="E44">
-        <v>-0.90291777823910202</v>
+        <v>-0.90196821812682304</v>
       </c>
       <c r="F44">
-        <v>-0.39813234227337302</v>
+        <v>-0.40232130664062898</v>
       </c>
       <c r="G44">
-        <v>0.161957166484474</v>
+        <v>0.15681485807186701</v>
       </c>
       <c r="H44">
-        <v>309.59976719399401</v>
+        <v>319.84539310327301</v>
       </c>
       <c r="I44">
-        <v>81.880728718100102</v>
+        <v>84.565780155793107</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -8617,28 +8687,28 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>-0.91971625044333205</v>
+        <v>-0.91287946415071297</v>
       </c>
       <c r="C45">
-        <v>-279.33000856566701</v>
+        <v>-270.08950861327202</v>
       </c>
       <c r="D45">
-        <v>-127.70227392261801</v>
+        <v>-124.951142615056</v>
       </c>
       <c r="E45">
-        <v>0.89707606333150203</v>
+        <v>0.894432017030096</v>
       </c>
       <c r="F45">
-        <v>0.41011939160146599</v>
+        <v>0.41378986948887198</v>
       </c>
       <c r="G45">
-        <v>0.164488969934451</v>
+        <v>0.169615184520301</v>
       </c>
       <c r="H45">
-        <v>-304.156130750675</v>
+        <v>-294.51478422429898</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -8646,28 +8716,28 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C46">
-        <v>-111.287873234369</v>
+        <v>-109.24694139707201</v>
       </c>
       <c r="D46">
-        <v>-77.671866273539706</v>
+        <v>-77.064229078245702</v>
       </c>
       <c r="E46">
-        <v>0.76720663785635601</v>
+        <v>0.76306765080971195</v>
       </c>
       <c r="F46">
-        <v>0.53546149861499603</v>
+        <v>0.53827795535678202</v>
       </c>
       <c r="G46">
-        <v>0.35309341303701303</v>
+        <v>0.35774935788155998</v>
       </c>
       <c r="H46">
-        <v>-128.82444241044499</v>
+        <v>-126.694976344598</v>
       </c>
       <c r="I46">
-        <v>7.1054273576010003E-15</v>
+        <v>-7.1054273576010003E-15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -8675,28 +8745,28 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C47">
-        <v>-57.889105476168197</v>
+        <v>-56.934077681082698</v>
       </c>
       <c r="D47">
-        <v>-61.773698152584601</v>
+        <v>-61.4893621447724</v>
       </c>
       <c r="E47">
-        <v>0.58505334788021601</v>
+        <v>0.57970148521556197</v>
       </c>
       <c r="F47">
-        <v>0.624312789389879</v>
+        <v>0.626083288113508</v>
       </c>
       <c r="G47">
-        <v>0.51763512355555796</v>
+        <v>0.52150350371195697</v>
       </c>
       <c r="H47">
-        <v>-73.109272593811397</v>
+        <v>-72.112816345537198</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>-7.1054273576010003E-15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -8704,25 +8774,25 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C48">
-        <v>-28.742825965779399</v>
+        <v>-28.129439310993501</v>
       </c>
       <c r="D48">
-        <v>-53.096111174271797</v>
+        <v>-52.913490402850798</v>
       </c>
       <c r="E48">
-        <v>0.36302963909240998</v>
+        <v>0.35682962140597302</v>
       </c>
       <c r="F48">
-        <v>0.67061819529350797</v>
+        <v>0.67122207943685297</v>
       </c>
       <c r="G48">
-        <v>0.64690085583627899</v>
+        <v>0.649718047589673</v>
       </c>
       <c r="H48">
-        <v>-42.698647393663101</v>
+        <v>-42.058652444914401</v>
       </c>
       <c r="I48">
         <v>-1.7763568394002501E-15</v>
@@ -8733,28 +8803,28 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C49">
-        <v>-8.1342724079001698</v>
+        <v>-7.6542676733694099</v>
       </c>
       <c r="D49">
-        <v>-46.960421851318202</v>
+        <v>-46.817512262037397</v>
       </c>
       <c r="E49">
-        <v>0.116266060335301</v>
+        <v>0.109640408586397</v>
       </c>
       <c r="F49">
-        <v>0.67122207943685297</v>
+        <v>0.67061819529350797</v>
       </c>
       <c r="G49">
-        <v>0.732081363845969</v>
+        <v>0.73365538023399302</v>
       </c>
       <c r="H49">
-        <v>-21.196108864089702</v>
+        <v>-20.6952818521581</v>
       </c>
       <c r="I49">
-        <v>-8.8817841970012504E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -8762,28 +8832,28 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C50">
-        <v>9.2389123160110191</v>
+        <v>9.6765944976546301</v>
       </c>
       <c r="D50">
-        <v>-41.787983925637199</v>
+        <v>-41.657674834258401</v>
       </c>
       <c r="E50">
-        <v>-0.13842085829490899</v>
+        <v>-0.145020616888999</v>
       </c>
       <c r="F50">
-        <v>0.626083288113508</v>
+        <v>0.624312789389879</v>
       </c>
       <c r="G50">
-        <v>0.76737173673121195</v>
+        <v>0.767595311138207</v>
       </c>
       <c r="H50">
-        <v>-3.0692872578024701</v>
+        <v>-2.6126187221836199</v>
       </c>
       <c r="I50">
-        <v>2.55351295663786E-15</v>
+        <v>5.7731597280508101E-15</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -8791,28 +8861,28 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C51">
-        <v>26.1887313651205</v>
+        <v>26.647307088603899</v>
       </c>
       <c r="D51">
-        <v>-36.741592703976004</v>
+        <v>-36.605063075031403</v>
       </c>
       <c r="E51">
-        <v>-0.38367462418360498</v>
+        <v>-0.38979872698131202</v>
       </c>
       <c r="F51">
-        <v>0.53827795535678202</v>
+        <v>0.53546149861499603</v>
       </c>
       <c r="G51">
-        <v>0.75036699389997796</v>
+        <v>0.74922489009958204</v>
       </c>
       <c r="H51">
-        <v>14.615803359992301</v>
+        <v>15.0942717850196</v>
       </c>
       <c r="I51">
-        <v>-9.3258734068513102E-15</v>
+        <v>2.6645352591003702E-15</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -8820,28 +8890,28 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C52">
-        <v>45.253986065546201</v>
+        <v>45.809877651451004</v>
       </c>
       <c r="D52">
-        <v>-31.065382611100802</v>
+        <v>-30.899879580585999</v>
       </c>
       <c r="E52">
-        <v>-0.60278159848648505</v>
+        <v>-0.60801269800270097</v>
       </c>
       <c r="F52">
-        <v>0.41378986948887198</v>
+        <v>0.41011939160146599</v>
       </c>
       <c r="G52">
-        <v>0.68222598047454897</v>
+        <v>0.67979603095334196</v>
       </c>
       <c r="H52">
-        <v>34.508095782198502</v>
+        <v>35.088101565263898</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3.5527136788005001E-15</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -8849,28 +8919,28 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C53">
-        <v>70.458583609406205</v>
+        <v>71.263869996461594</v>
       </c>
       <c r="D53">
-        <v>-23.561334371864799</v>
+        <v>-23.321580180815001</v>
       </c>
       <c r="E53">
-        <v>-0.78081000299620096</v>
+        <v>-0.784791608443699</v>
       </c>
       <c r="F53">
-        <v>0.26110268783538598</v>
+        <v>0.25682832580463599</v>
       </c>
       <c r="G53">
-        <v>0.56759239391151795</v>
+        <v>0.56404019571369102</v>
       </c>
       <c r="H53">
-        <v>60.806051545427202</v>
+        <v>61.646270705707899</v>
       </c>
       <c r="I53">
-        <v>3.5527136788005001E-15</v>
+        <v>7.1054273576010003E-15</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -8878,28 +8948,28 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C54">
-        <v>111.96505471437</v>
+        <v>113.48344745126001</v>
       </c>
       <c r="D54">
-        <v>-11.203804723946201</v>
+        <v>-10.751740677936199</v>
       </c>
       <c r="E54">
-        <v>-0.90562749615126603</v>
+        <v>-0.90808826769871098</v>
       </c>
       <c r="F54">
-        <v>9.06217894985126E-2</v>
+        <v>8.6034834033096905E-2</v>
       </c>
       <c r="G54">
-        <v>0.41427832369419898</v>
+        <v>0.40984595325664702</v>
       </c>
       <c r="H54">
-        <v>104.113045005911</v>
+        <v>105.697304582223</v>
       </c>
       <c r="I54">
-        <v>7.1054273576010003E-15</v>
+        <v>1.06581410364015E-14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -8907,28 +8977,28 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>1.6982776275481599</v>
+        <v>1.7051144138407801</v>
       </c>
       <c r="C55">
-        <v>213.192090196968</v>
+        <v>218.05658003363101</v>
       </c>
       <c r="D55">
-        <v>18.934052310050099</v>
+        <v>20.3823343677211</v>
       </c>
       <c r="E55">
-        <v>-0.968727972063822</v>
+        <v>-0.96950021219687399</v>
       </c>
       <c r="F55">
-        <v>-8.6034834033096905E-2</v>
+        <v>-9.06217894985126E-2</v>
       </c>
       <c r="G55">
-        <v>0.232731870344419</v>
+        <v>0.22772138638762399</v>
       </c>
       <c r="H55">
-        <v>209.731240120184</v>
+        <v>214.80674820209799</v>
       </c>
       <c r="I55">
-        <v>1.4210854715202001E-14</v>
+        <v>7.1054273576010003E-15</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -8936,28 +9006,28 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>1.9600770153473099</v>
+        <v>1.9669138016399299</v>
       </c>
       <c r="C56">
-        <v>1400.3405292100499</v>
+        <v>1642.9817384145299</v>
       </c>
       <c r="D56">
-        <v>372.37826573126603</v>
+        <v>444.61871057584199</v>
       </c>
       <c r="E56">
-        <v>-0.96581123757889498</v>
+        <v>-0.96484231940867404</v>
       </c>
       <c r="F56">
-        <v>-0.25682832580463599</v>
+        <v>-0.26110268783538598</v>
       </c>
       <c r="G56">
-        <v>3.5325124638269E-2</v>
+        <v>3.0077983363669701E-2</v>
       </c>
       <c r="H56">
-        <v>1448.3773672493701</v>
+        <v>1701.5441863144999</v>
       </c>
       <c r="I56">
-        <v>5.6843418860808002E-14</v>
+        <v>1.13686837721616E-13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -8965,28 +9035,28 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>-0.91971625044333205</v>
+        <v>-0.91287946415071297</v>
       </c>
       <c r="C57">
-        <v>-1263.72231172433</v>
+        <v>-1097.05655496807</v>
       </c>
       <c r="D57">
-        <v>-829.35899830639403</v>
+        <v>-726.956520701763</v>
       </c>
       <c r="E57">
-        <v>0.83555586700461004</v>
+        <v>0.83296464621837596</v>
       </c>
       <c r="F57">
-        <v>0.54836079925060099</v>
+        <v>0.55195794450187696</v>
       </c>
       <c r="G57">
-        <v>3.3864833668794302E-2</v>
+        <v>3.88886313921867E-2</v>
       </c>
       <c r="H57">
-        <v>-1447.8373356450199</v>
+        <v>-1258.8805779454301</v>
       </c>
       <c r="I57">
-        <v>-391.59119878055998</v>
+        <v>-341.00379309136099</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -8994,28 +9064,28 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C58">
-        <v>-165.87453468231999</v>
+        <v>-161.55395904229999</v>
       </c>
       <c r="D58">
-        <v>-157.19008909586401</v>
+        <v>-154.610747419555</v>
       </c>
       <c r="E58">
-        <v>0.70828110838620095</v>
+        <v>0.70422481434039996</v>
       </c>
       <c r="F58">
-        <v>0.67119869089833795</v>
+        <v>0.67395887752932204</v>
       </c>
       <c r="G58">
-        <v>0.21870114046243699</v>
+        <v>0.22326406398398299</v>
       </c>
       <c r="H58">
-        <v>-203.83192324945901</v>
+        <v>-198.95497099949199</v>
       </c>
       <c r="I58">
-        <v>-60.6360386819524</v>
+        <v>-59.396799360504197</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -9023,28 +9093,28 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C59">
-        <v>-71.413014883655507</v>
+        <v>-70.007477383614798</v>
       </c>
       <c r="D59">
-        <v>-102.216038415423</v>
+        <v>-101.437815448097</v>
       </c>
       <c r="E59">
-        <v>0.52976706685223496</v>
+        <v>0.524522129282745</v>
       </c>
       <c r="F59">
-        <v>0.75827481790000595</v>
+        <v>0.76000994375322095</v>
       </c>
       <c r="G59">
-        <v>0.37995546504490602</v>
+        <v>0.38374655866720098</v>
       </c>
       <c r="H59">
-        <v>-97.611023675781098</v>
+        <v>-96.0418587535884</v>
       </c>
       <c r="I59">
-        <v>-34.901908336283903</v>
+        <v>-34.557106802273601</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -9052,28 +9122,28 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C60">
-        <v>-31.5595479504575</v>
+        <v>-30.777562745417001</v>
       </c>
       <c r="D60">
-        <v>-81.244980143364003</v>
+        <v>-80.864143754409398</v>
       </c>
       <c r="E60">
-        <v>0.31217917932485101</v>
+        <v>0.30610303205936401</v>
       </c>
       <c r="F60">
-        <v>0.80365508610054404</v>
+        <v>0.80424690521652398</v>
       </c>
       <c r="G60">
-        <v>0.50663859168127801</v>
+        <v>0.50939949863903999</v>
       </c>
       <c r="H60">
-        <v>-53.430463097580997</v>
+        <v>-52.572318943128202</v>
       </c>
       <c r="I60">
-        <v>-26.174813823124499</v>
+        <v>-26.032948301474999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -9081,28 +9151,28 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C61">
-        <v>-6.10554363417726</v>
+        <v>-5.5275209333608002</v>
       </c>
       <c r="D61">
-        <v>-69.803335804985906</v>
+        <v>-69.570113232924299</v>
       </c>
       <c r="E61">
-        <v>7.0345700758054297E-2</v>
+        <v>6.38524231914048E-2</v>
       </c>
       <c r="F61">
-        <v>0.80424690521652398</v>
+        <v>0.80365508610054404</v>
       </c>
       <c r="G61">
-        <v>0.59011727464504904</v>
+        <v>0.59165984369172098</v>
       </c>
       <c r="H61">
-        <v>-25.769887793853101</v>
+        <v>-25.149347432334199</v>
       </c>
       <c r="I61">
-        <v>-22.472093908526801</v>
+        <v>-22.413504912084299</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -9110,28 +9180,28 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C62">
-        <v>14.696631233584201</v>
+        <v>15.2215846065978</v>
       </c>
       <c r="D62">
-        <v>-62.311912684759903</v>
+        <v>-62.1478550088258</v>
       </c>
       <c r="E62">
-        <v>-0.17925281693254699</v>
+        <v>-0.18572071866484099</v>
       </c>
       <c r="F62">
-        <v>0.76000994375322095</v>
+        <v>0.75827481790000595</v>
       </c>
       <c r="G62">
-        <v>0.62470257964728404</v>
+        <v>0.62492168725155195</v>
       </c>
       <c r="H62">
-        <v>-3.6949230596985898</v>
+        <v>-3.1449816368543302</v>
       </c>
       <c r="I62">
-        <v>-21.227975111540101</v>
+        <v>-21.2205322417133</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -9139,28 +9209,28 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C63">
-        <v>35.345737526306301</v>
+        <v>35.917414687761799</v>
       </c>
       <c r="D63">
-        <v>-56.771201659802699</v>
+        <v>-56.642965521127401</v>
       </c>
       <c r="E63">
-        <v>-0.41960664724739399</v>
+        <v>-0.42560839633098801</v>
       </c>
       <c r="F63">
-        <v>0.67395887752932204</v>
+        <v>0.67119869089833795</v>
       </c>
       <c r="G63">
-        <v>0.60803757530699998</v>
+        <v>0.60691828964772498</v>
       </c>
       <c r="H63">
-        <v>17.676706796993798</v>
+        <v>18.2612078543583</v>
       </c>
       <c r="I63">
-        <v>-21.809788327920099</v>
+        <v>-21.850010189287001</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -9168,28 +9238,28 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C64">
-        <v>60.026113531299401</v>
+        <v>60.778644550008003</v>
       </c>
       <c r="D64">
-        <v>-52.230815188980401</v>
+        <v>-52.119737609565199</v>
       </c>
       <c r="E64">
-        <v>-0.63433607385401203</v>
+        <v>-0.63946266100721905</v>
       </c>
       <c r="F64">
-        <v>0.55195794450187696</v>
+        <v>0.54836079925060099</v>
       </c>
       <c r="G64">
-        <v>0.54125795412976596</v>
+        <v>0.53887655267491996</v>
       </c>
       <c r="H64">
-        <v>42.6265633351302</v>
+        <v>43.379502961248903</v>
       </c>
       <c r="I64">
-        <v>-24.500648372343498</v>
+        <v>-24.608921555485299</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -9197,28 +9267,28 @@
         <v>5</v>
       </c>
       <c r="B65">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C65">
-        <v>96.582731931870896</v>
+        <v>97.842819307011695</v>
       </c>
       <c r="D65">
-        <v>-48.042685220874198</v>
+        <v>-47.931495000968397</v>
       </c>
       <c r="E65">
-        <v>-0.80880764118631698</v>
+        <v>-0.81270969796673298</v>
       </c>
       <c r="F65">
-        <v>0.40232130664062898</v>
+        <v>0.39813234227337302</v>
       </c>
       <c r="G65">
-        <v>0.42891463694026699</v>
+        <v>0.42543340826354697</v>
       </c>
       <c r="H65">
-        <v>78.858382729853702</v>
+        <v>80.097808798856406</v>
       </c>
       <c r="I65">
-        <v>-30.917972180823998</v>
+        <v>-31.170967195534399</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -9226,28 +9296,28 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C66">
-        <v>171.14167626416099</v>
+        <v>174.30195236427301</v>
       </c>
       <c r="D66">
-        <v>-43.238228655026901</v>
+        <v>-43.0835794946737</v>
       </c>
       <c r="E66">
-        <v>-0.93113140025851004</v>
+        <v>-0.933543007945002</v>
       </c>
       <c r="F66">
-        <v>0.23524645352958901</v>
+        <v>0.23075114104538999</v>
       </c>
       <c r="G66">
-        <v>0.27866363514886</v>
+        <v>0.274319819231581</v>
       </c>
       <c r="H66">
-        <v>151.688418504038</v>
+        <v>154.76143234275099</v>
       </c>
       <c r="I66">
-        <v>-47.588451237218102</v>
+        <v>-48.342007697490999</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -9255,28 +9325,28 @@
         <v>5</v>
       </c>
       <c r="B67">
-        <v>1.6982776275481599</v>
+        <v>1.7051144138407801</v>
       </c>
       <c r="C67">
-        <v>504.82545375777897</v>
+        <v>531.09639061384496</v>
       </c>
       <c r="D67">
-        <v>-31.581363201900501</v>
+        <v>-30.797029652966401</v>
       </c>
       <c r="E67">
-        <v>-0.99297118903938997</v>
+        <v>-0.99372800055349497</v>
       </c>
       <c r="F67">
-        <v>6.2119260304022997E-2</v>
+        <v>5.7623947819823898E-2</v>
       </c>
       <c r="G67">
-        <v>0.100744306226106</v>
+        <v>9.5833926944536907E-2</v>
       </c>
       <c r="H67">
-        <v>474.825284191609</v>
+        <v>500.22779354856198</v>
       </c>
       <c r="I67">
-        <v>-131.63196323080101</v>
+        <v>-138.37657743632101</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -9284,28 +9354,28 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C68">
-        <v>-297.69874068112802</v>
+        <v>-284.68658576216598</v>
       </c>
       <c r="D68">
-        <v>-349.22283680263303</v>
+        <v>-337.15807904355302</v>
       </c>
       <c r="E68">
-        <v>0.644731473644369</v>
+        <v>0.64084584157050795</v>
       </c>
       <c r="F68">
-        <v>0.75631812780557495</v>
+        <v>0.75896218407518701</v>
       </c>
       <c r="G68">
-        <v>0.110924372637529</v>
+        <v>0.115295318576286</v>
       </c>
       <c r="H68">
-        <v>-384.97144237908702</v>
+        <v>-369.05763311202497</v>
       </c>
       <c r="I68">
-        <v>-207.06920462640099</v>
+        <v>-199.219030740942</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -9313,28 +9383,28 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C69">
-        <v>-91.424558282267199</v>
+        <v>-89.233873129712606</v>
       </c>
       <c r="D69">
-        <v>-162.059211193788</v>
+        <v>-160.18800974571801</v>
       </c>
       <c r="E69">
-        <v>0.47372811994594799</v>
+        <v>0.46870385459060399</v>
       </c>
       <c r="F69">
-        <v>0.83973066844609101</v>
+        <v>0.84139279170227299</v>
       </c>
       <c r="G69">
-        <v>0.26539418389172897</v>
+        <v>0.26902577341839201</v>
       </c>
       <c r="H69">
-        <v>-133.86665363788001</v>
+        <v>-131.23310583779099</v>
       </c>
       <c r="I69">
-        <v>-86.546816056475393</v>
+        <v>-85.378517172829206</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -9342,28 +9412,28 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C70">
-        <v>-35.133925204023697</v>
+        <v>-34.129701970071402</v>
       </c>
       <c r="D70">
-        <v>-116.965465695023</v>
+        <v>-116.24560680727301</v>
       </c>
       <c r="E70">
-        <v>0.26529488874683299</v>
+        <v>0.25947438549098101</v>
       </c>
       <c r="F70">
-        <v>0.88320163570078303</v>
+        <v>0.88376855499041396</v>
       </c>
       <c r="G70">
-        <v>0.38674732410226798</v>
+        <v>0.38939207039208201</v>
       </c>
       <c r="H70">
-        <v>-67.048973603839201</v>
+        <v>-65.8810920182286</v>
       </c>
       <c r="I70">
-        <v>-59.390253491869402</v>
+        <v>-58.986875599721898</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -9371,28 +9441,28 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C71">
-        <v>-3.6913132302157501</v>
+        <v>-2.9992104554100698</v>
       </c>
       <c r="D71">
-        <v>-96.986889415663697</v>
+        <v>-96.6187685114988</v>
       </c>
       <c r="E71">
-        <v>3.36361603010428E-2</v>
+        <v>2.7416076822732598E-2</v>
       </c>
       <c r="F71">
-        <v>0.88376855499041396</v>
+        <v>0.88320163570078303</v>
       </c>
       <c r="G71">
-        <v>0.46671377730934499</v>
+        <v>0.46819144527330803</v>
       </c>
       <c r="H71">
-        <v>-31.212782031987299</v>
+        <v>-30.444411703030202</v>
       </c>
       <c r="I71">
-        <v>-49.214363775920098</v>
+        <v>-49.059037382299103</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -9400,28 +9470,28 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C72">
-        <v>21.053284317366501</v>
+        <v>21.6790532934514</v>
       </c>
       <c r="D72">
-        <v>-86.216312491413603</v>
+        <v>-86.009880777249705</v>
       </c>
       <c r="E72">
-        <v>-0.20546090588199201</v>
+        <v>-0.211656681172887</v>
       </c>
       <c r="F72">
-        <v>0.84139279170227299</v>
+        <v>0.83973066844609101</v>
       </c>
       <c r="G72">
-        <v>0.49984396187771002</v>
+        <v>0.50005385088604004</v>
       </c>
       <c r="H72">
-        <v>-4.4236065645676996</v>
+        <v>-3.7649497132596701</v>
       </c>
       <c r="I72">
-        <v>-45.9523838788622</v>
+        <v>-45.933096155618699</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -9429,28 +9499,28 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C73">
-        <v>46.1187076127758</v>
+        <v>46.8310285766186</v>
       </c>
       <c r="D73">
-        <v>-80.335494871641998</v>
+        <v>-80.233406958844597</v>
       </c>
       <c r="E73">
-        <v>-0.435702239868481</v>
+        <v>-0.44145147512489002</v>
       </c>
       <c r="F73">
-        <v>0.75896218407518701</v>
+        <v>0.75631812780557495</v>
       </c>
       <c r="G73">
-        <v>0.48388011047924701</v>
+        <v>0.482807916942885</v>
       </c>
       <c r="H73">
-        <v>21.277776904837602</v>
+        <v>21.989613064519698</v>
       </c>
       <c r="I73">
-        <v>-47.468414423950598</v>
+        <v>-47.573829694373202</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -9458,28 +9528,28 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C74">
-        <v>78.234058894305704</v>
+        <v>79.263670957623802</v>
       </c>
       <c r="D74">
-        <v>-78.319070983947199</v>
+        <v>-78.324276613332302</v>
       </c>
       <c r="E74">
-        <v>-0.641397275239041</v>
+        <v>-0.64630816957929904</v>
       </c>
       <c r="F74">
-        <v>0.642094241795923</v>
+        <v>0.63864844057814396</v>
       </c>
       <c r="G74">
-        <v>0.419910133205249</v>
+        <v>0.41762892534181401</v>
       </c>
       <c r="H74">
-        <v>52.633288092807597</v>
+        <v>53.618607812009699</v>
       </c>
       <c r="I74">
-        <v>-54.6998507523722</v>
+        <v>-54.998636880662801</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -9487,28 +9557,28 @@
         <v>6</v>
       </c>
       <c r="B75">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C75">
-        <v>132.604231548456</v>
+        <v>134.65515782660199</v>
       </c>
       <c r="D75">
-        <v>-81.798999851148906</v>
+        <v>-82.016684175025802</v>
       </c>
       <c r="E75">
-        <v>-0.80852823526028605</v>
+        <v>-0.812266119350742</v>
       </c>
       <c r="F75">
-        <v>0.49875332199740602</v>
+        <v>0.49474060148999599</v>
       </c>
       <c r="G75">
-        <v>0.31229347829155502</v>
+        <v>0.30895871664706598</v>
       </c>
       <c r="H75">
-        <v>103.749990020228</v>
+        <v>105.653531809415</v>
       </c>
       <c r="I75">
-        <v>-73.549475773208997</v>
+        <v>-74.343335786101804</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -9516,28 +9586,28 @@
         <v>6</v>
       </c>
       <c r="B76">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C76">
-        <v>281.61032141977603</v>
+        <v>289.46717107348502</v>
       </c>
       <c r="D76">
-        <v>-103.03886135977901</v>
+        <v>-104.306776183349</v>
       </c>
       <c r="E76">
-        <v>-0.925705421203738</v>
+        <v>-0.92801556442077204</v>
       </c>
       <c r="F76">
-        <v>0.33870787148183401</v>
+        <v>0.33440169195604003</v>
       </c>
       <c r="G76">
-        <v>0.168364042925601</v>
+        <v>0.16420298599517499</v>
       </c>
       <c r="H76">
-        <v>240.50029920068101</v>
+        <v>247.66869818888799</v>
       </c>
       <c r="I76">
-        <v>-136.424744955107</v>
+        <v>-139.88187532966501</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -9545,28 +9615,28 @@
         <v>7</v>
       </c>
       <c r="B77">
-        <v>-0.65791686264418303</v>
+        <v>-0.65108007635156295</v>
       </c>
       <c r="C77">
-        <v>-455.92547842622201</v>
+        <v>-426.801771879471</v>
       </c>
       <c r="D77">
-        <v>-579.71703913557405</v>
+        <v>-547.84755022638797</v>
       </c>
       <c r="E77">
-        <v>0.61669960241112998</v>
+        <v>0.61290217641091305</v>
       </c>
       <c r="F77">
-        <v>0.78414408595881602</v>
+        <v>0.78672812063667696</v>
       </c>
       <c r="G77">
-        <v>6.92795268587027E-2</v>
+        <v>7.3551249821109596E-2</v>
       </c>
       <c r="H77">
-        <v>-602.39065587964205</v>
+        <v>-565.38392070247505</v>
       </c>
       <c r="I77">
-        <v>-382.830871230225</v>
+        <v>-360.59674975261697</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -9574,28 +9644,28 @@
         <v>7</v>
       </c>
       <c r="B78">
-        <v>-0.39611747484503401</v>
+        <v>-0.38928068855241399</v>
       </c>
       <c r="C78">
-        <v>-104.55109524320299</v>
+        <v>-101.76922457328899</v>
       </c>
       <c r="D78">
-        <v>-201.31323591780901</v>
+        <v>-198.49234627476201</v>
       </c>
       <c r="E78">
-        <v>0.44957812278697801</v>
+        <v>0.44466791113294102</v>
       </c>
       <c r="F78">
-        <v>0.86566311415072605</v>
+        <v>0.86728750625698203</v>
       </c>
       <c r="G78">
-        <v>0.220242784922007</v>
+        <v>0.22379193528635499</v>
       </c>
       <c r="H78">
-        <v>-157.648470825082</v>
+        <v>-154.177325636646</v>
       </c>
       <c r="I78">
-        <v>-120.423203126164</v>
+        <v>-118.513393218562</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -9603,28 +9673,28 @@
         <v>7</v>
       </c>
       <c r="B79">
-        <v>-0.13431808704588399</v>
+        <v>-0.127481300753264</v>
       </c>
       <c r="C79">
-        <v>-37.166006588085402</v>
+        <v>-36.031317603120698</v>
       </c>
       <c r="D79">
-        <v>-137.27304057306799</v>
+        <v>-136.31695192523199</v>
       </c>
       <c r="E79">
-        <v>0.24587644532004899</v>
+        <v>0.24018807082190499</v>
       </c>
       <c r="F79">
-        <v>0.90814726554994096</v>
+        <v>0.90870131544698396</v>
       </c>
       <c r="G79">
-        <v>0.33884113934252402</v>
+        <v>0.34142584837673201</v>
       </c>
       <c r="H79">
-        <v>-74.791279386142193</v>
+        <v>-73.430948763491401</v>
       </c>
       <c r="I79">
-        <v>-78.273676204719294</v>
+        <v>-77.681118028503604</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -9632,28 +9702,28 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>0.127481300753264</v>
+        <v>0.13431808704588399</v>
       </c>
       <c r="C80">
-        <v>-2.3922581249978601</v>
+        <v>-1.63992214037802</v>
       </c>
       <c r="D80">
-        <v>-111.613883607258</v>
+        <v>-111.160859515803</v>
       </c>
       <c r="E80">
-        <v>1.9476502696774999E-2</v>
+        <v>1.3397618676089599E-2</v>
       </c>
       <c r="F80">
-        <v>0.90870131544698396</v>
+        <v>0.90814726554994096</v>
       </c>
       <c r="G80">
-        <v>0.41699230825954398</v>
+        <v>0.418436432314364</v>
       </c>
       <c r="H80">
-        <v>-34.141508111986496</v>
+        <v>-33.291181928945903</v>
       </c>
       <c r="I80">
-        <v>-63.603910912493099</v>
+        <v>-63.384398626669103</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -9661,28 +9731,28 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>0.38928068855241399</v>
+        <v>0.39611747484503401</v>
       </c>
       <c r="C81">
-        <v>24.413258223991502</v>
+        <v>25.0919551776954</v>
       </c>
       <c r="D81">
-        <v>-98.851603193182697</v>
+        <v>-98.621440609158896</v>
       </c>
       <c r="E81">
-        <v>-0.21419292313666299</v>
+        <v>-0.22024805077971099</v>
       </c>
       <c r="F81">
-        <v>0.86728750625698203</v>
+        <v>0.86566311415072605</v>
       </c>
       <c r="G81">
-        <v>0.449370418662284</v>
+        <v>0.44957554306990799</v>
       </c>
       <c r="H81">
-        <v>-4.8087711362814902</v>
+        <v>-4.0926152922569896</v>
       </c>
       <c r="I81">
-        <v>-59.021111591386799</v>
+        <v>-58.994182478495603</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -9690,28 +9760,28 @@
         <v>7</v>
       </c>
       <c r="B82">
-        <v>0.65108007635156295</v>
+        <v>0.65791686264418303</v>
       </c>
       <c r="C82">
-        <v>51.860480108004097</v>
+        <v>52.651113359019703</v>
       </c>
       <c r="D82">
-        <v>-92.894780708995697</v>
+        <v>-92.813874860679306</v>
       </c>
       <c r="E82">
-        <v>-0.439207646966702</v>
+        <v>-0.44482637128981001</v>
       </c>
       <c r="F82">
-        <v>0.78672812063667696</v>
+        <v>0.78414408595881602</v>
       </c>
       <c r="G82">
-        <v>0.43376895583415598</v>
+        <v>0.43272110170518802</v>
       </c>
       <c r="H82">
-        <v>23.197073545656799</v>
+        <v>23.977921854556801</v>
       </c>
       <c r="I82">
-        <v>-61.143936810165002</v>
+        <v>-61.291999676513399</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -9719,28 +9789,28 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>0.91287946415071297</v>
+        <v>0.91971625044333205</v>
       </c>
       <c r="C83">
-        <v>88.327424850289304</v>
+        <v>89.527183563645906</v>
       </c>
       <c r="D83">
-        <v>-92.7807967658634</v>
+        <v>-92.873924012773301</v>
       </c>
       <c r="E83">
-        <v>-0.64023328721873596</v>
+        <v>-0.64503270144466596</v>
       </c>
       <c r="F83">
-        <v>0.67251314758541503</v>
+        <v>0.669145568028925</v>
       </c>
       <c r="G83">
-        <v>0.37125113368425899</v>
+        <v>0.36902171054592797</v>
       </c>
       <c r="H83">
-        <v>58.180401343995598</v>
+        <v>59.3037055442407</v>
       </c>
       <c r="I83">
-        <v>-71.440432686440104</v>
+        <v>-71.872035893221494</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -9748,28 +9818,28 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>1.1746788519498601</v>
+        <v>1.1815156382424801</v>
       </c>
       <c r="C84">
-        <v>154.68240699901901</v>
+        <v>157.31244153512901</v>
       </c>
       <c r="D84">
-        <v>-102.488805797719</v>
+        <v>-102.995460108112</v>
       </c>
       <c r="E84">
-        <v>-0.80357027872016795</v>
+        <v>-0.80722331070082898</v>
       </c>
       <c r="F84">
-        <v>0.53242614876747196</v>
+        <v>0.52850451931393905</v>
       </c>
       <c r="G84">
-        <v>0.26607743847652299</v>
+        <v>0.26281837783140999</v>
       </c>
       <c r="H84">
-        <v>119.00646959084401</v>
+        <v>121.382585977452</v>
       </c>
       <c r="I84">
-        <v>-99.679032456090795</v>
+        <v>-100.915095224992</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -9777,28 +9847,28 @@
         <v>7</v>
       </c>
       <c r="B85">
-        <v>1.4364782397490099</v>
+        <v>1.4433150260416301</v>
       </c>
       <c r="C85">
-        <v>374.93734941782702</v>
+        <v>388.455050964919</v>
       </c>
       <c r="D85">
-        <v>-153.560122979993</v>
+        <v>-156.929907614119</v>
       </c>
       <c r="E85">
-        <v>-0.91808747542731595</v>
+        <v>-0.92034517707014696</v>
       </c>
       <c r="F85">
-        <v>0.37601382164757802</v>
+        <v>0.37180539486346198</v>
       </c>
       <c r="G85">
-        <v>0.12541528373160701</v>
+        <v>0.121348685176824</v>
       </c>
       <c r="H85">
-        <v>315.53108159743499</v>
+        <v>327.52521542297001</v>
       </c>
       <c r="I85">
-        <v>-211.47615216095599</v>
+        <v>-218.56307373324799</v>
       </c>
     </row>
   </sheetData>
